--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoohoo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D77C3B0-8BAA-42EB-850F-EA127201A59F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E77D57F-9D75-41E4-BCEF-8754D13A23D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="3330" windowWidth="21600" windowHeight="11385" tabRatio="814" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -857,9 +857,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:R1048576"/>
     </sheetView>
   </sheetViews>
@@ -1133,9 +1133,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1146,7 +1148,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
         <v>62</v>
@@ -1208,7 +1210,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E77D57F-9D75-41E4-BCEF-8754D13A23D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687443CB-C978-40D5-B1C5-87161C187EB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="3330" windowWidth="21600" windowHeight="11385" tabRatio="814" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="3330" windowWidth="21600" windowHeight="11385" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -197,21 +197,12 @@
     <t>Action00103</t>
   </si>
   <si>
-    <t>Base Layer.Attack.attack1</t>
-  </si>
-  <si>
-    <t>Control102</t>
-  </si>
-  <si>
     <t>Action00104</t>
   </si>
   <si>
     <t>Base Layer.Attack.skill1</t>
   </si>
   <si>
-    <t>Control202</t>
-  </si>
-  <si>
     <t>ActiveOne001</t>
   </si>
   <si>
@@ -221,9 +212,6 @@
     <t>Base Layer.Attack.skill2</t>
   </si>
   <si>
-    <t>Control302</t>
-  </si>
-  <si>
     <t>ActiveTwo001</t>
   </si>
   <si>
@@ -305,13 +293,6 @@
     <t>ActiveTwo00105</t>
   </si>
   <si>
-    <t>Control205</t>
-  </si>
-  <si>
-    <t>Control205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Casting1002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,6 +437,30 @@
   </si>
   <si>
     <t>level|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Layer.Attack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -879,34 +884,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>59</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -920,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -940,7 +945,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -957,70 +962,70 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="G4">
         <v>0.05</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>0.05</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>0.05</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1029,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
         <v>2</v>
@@ -1040,7 +1045,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1049,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -1060,68 +1065,68 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="G9">
         <v>0.05</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10">
         <v>0.05</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>0.05</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1135,9 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1148,18 +1151,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1170,7 +1173,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1181,7 +1184,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1192,7 +1195,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1230,39 +1233,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1282,13 +1285,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>6.5</v>
@@ -1308,13 +1311,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -1334,13 +1337,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>4.5</v>
@@ -1388,36 +1391,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>74</v>
-      </c>
-      <c r="D1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1426,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1446,7 +1449,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1455,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -1475,7 +1478,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1487,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -1501,7 +1504,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1510,13 +1513,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -1530,7 +1533,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1539,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -1559,7 +1562,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1571,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1609,30 +1612,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1641,18 +1644,18 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1661,18 +1664,18 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1681,18 +1684,18 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1701,18 +1704,18 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1721,80 +1724,80 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687443CB-C978-40D5-B1C5-87161C187EB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6DFC94-B0C1-4F4E-A4D5-66FEF311B63A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="3330" windowWidth="21600" windowHeight="11385" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,11 @@
     <sheet name="SkillTable" sheetId="4" r:id="rId4"/>
     <sheet name="SkillLevelTable" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -174,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
   <si>
     <t>Action00101</t>
   </si>
@@ -864,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1007,8 +1006,8 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>50</v>
+      <c r="E6">
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6DFC94-B0C1-4F4E-A4D5-66FEF311B63A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9CBD7A-444F-440A-B6A9-80702BF29B07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
   <si>
     <t>Action00101</t>
   </si>
@@ -292,14 +292,10 @@
     <t>ActiveTwo00105</t>
   </si>
   <si>
+    <t>RangeNormal</t>
+  </si>
+  <si>
     <t>Casting1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RangeNormal</t>
-  </si>
-  <si>
-    <t>Casting1002</t>
   </si>
   <si>
     <t>ConeNormalBlue</t>
@@ -317,150 +313,162 @@
     <t>PointNormal</t>
   </si>
   <si>
+    <t>3, 4</t>
+  </si>
+  <si>
+    <t>mecanimName|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlType|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputType|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingType|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointRadius|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longDistance|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>actorId|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>passiveSkill|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooltime|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageFactor|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useCooltimeOverriding|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useDamageFactorOverriding|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useMecanimNameOverriding|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id|String</t>
+  </si>
+  <si>
+    <t>actorId|String</t>
+  </si>
+  <si>
     <t>actionName|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>3, 4</t>
   </si>
   <si>
     <t>listAllowingState|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>listNotAllowingState|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mecanimName|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fadeDuration|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>controlId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>castingId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>skillId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pointRadius|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longDistance|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actorId|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passiveSkill|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooltime|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageFactor|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useCooltimeOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useDamageFactorOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useMecanimNameOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor001</t>
   </si>
   <si>
     <t>Base Layer.Attack1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Control101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Control204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Control301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Control204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor002</t>
   </si>
   <si>
     <t>Control201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -863,9 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -883,48 +889,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -937,14 +940,14 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -957,31 +960,31 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G4">
         <v>0.05</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -990,10 +993,10 @@
         <v>0.05</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
         <v>9</v>
@@ -1003,11 +1006,11 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1016,7 +1019,7 @@
         <v>0.05</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -1026,14 +1029,11 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>2</v>
+      <c r="B7" t="s">
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
       </c>
       <c r="F7" t="s">
         <v>2</v>
@@ -1046,14 +1046,14 @@
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>2</v>
+      <c r="B8" t="s">
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -1066,31 +1066,31 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>2</v>
+      <c r="B9" t="s">
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G9">
         <v>0.05</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>2</v>
+      <c r="B10" t="s">
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -1099,7 +1099,7 @@
         <v>0.05</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
@@ -1109,11 +1109,11 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
-        <v>2</v>
+      <c r="B11" t="s">
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1122,7 +1122,7 @@
         <v>0.05</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -1150,18 +1150,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1232,28 +1232,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1264,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1284,13 +1284,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>6.5</v>
@@ -1310,13 +1310,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -1336,13 +1336,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>4.5</v>
@@ -1390,31 +1390,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1611,22 +1611,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9CBD7A-444F-440A-B6A9-80702BF29B07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C03F81-4E21-4992-B91E-FA59243223CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="98">
   <si>
     <t>Action00101</t>
   </si>
@@ -469,6 +469,30 @@
   </si>
   <si>
     <t>Control201</t>
+  </si>
+  <si>
+    <t>Die</t>
+  </si>
+  <si>
+    <t>Base Layer.Die</t>
+  </si>
+  <si>
+    <t>Action00106</t>
+  </si>
+  <si>
+    <t>Action00206</t>
+  </si>
+  <si>
+    <t>Rosehips01</t>
+  </si>
+  <si>
+    <t>Rosehips</t>
+  </si>
+  <si>
+    <t>Rosehips02</t>
+  </si>
+  <si>
+    <t>Rosehips03</t>
   </si>
 </sst>
 </file>
@@ -869,7 +893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -963,17 +987,14 @@
       <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="E4" t="s">
-        <v>46</v>
+      <c r="C4" t="s">
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G4">
         <v>0.05</v>
-      </c>
-      <c r="H4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -987,19 +1008,13 @@
         <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="G5">
         <v>0.05</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1013,50 +1028,56 @@
         <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>0.05</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>0.1</v>
+        <v>0.05</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>0.1</v>
@@ -1064,50 +1085,44 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
       </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
       <c r="E9" t="s">
         <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>0.05</v>
-      </c>
-      <c r="H9" t="s">
-        <v>85</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
       </c>
-      <c r="E10" t="s">
-        <v>46</v>
+      <c r="C10" t="s">
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="G10">
         <v>0.05</v>
       </c>
-      <c r="H10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>88</v>
@@ -1116,16 +1131,113 @@
         <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="G11">
         <v>0.05</v>
       </c>
       <c r="H11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>0.05</v>
+      </c>
+      <c r="H12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>0.05</v>
+      </c>
+      <c r="H13" t="s">
         <v>87</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J13" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C03F81-4E21-4992-B91E-FA59243223CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0664E2F8-23D5-4EDB-AA39-FA88F8478783}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="109">
   <si>
     <t>Action00101</t>
   </si>
@@ -241,9 +241,6 @@
     <t>S_Forward_ray</t>
   </si>
   <si>
-    <t>0.4,0.5,0.6</t>
-  </si>
-  <si>
     <t>S_spell04</t>
   </si>
   <si>
@@ -314,10 +311,6 @@
   </si>
   <si>
     <t>3, 4</t>
-  </si>
-  <si>
-    <t>mecanimName|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>controlType|Int</t>
@@ -328,10 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skillId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>castingType|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,38 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>actorId|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passiveSkill|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooltime|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageFactor|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useCooltimeOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useDamageFactorOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useMecanimNameOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,10 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>level|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Control101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -493,6 +446,80 @@
   </si>
   <si>
     <t>Rosehips03</t>
+  </si>
+  <si>
+    <t>id|Int</t>
+  </si>
+  <si>
+    <t>passiveSkill|Bool</t>
+  </si>
+  <si>
+    <t>icon|String</t>
+  </si>
+  <si>
+    <t>cooltime|Float</t>
+  </si>
+  <si>
+    <t>passiveAffectorValueId|String</t>
+  </si>
+  <si>
+    <t>useCooltimeOverriding|Bool</t>
+  </si>
+  <si>
+    <t>useMecanimNameOverriding|Bool</t>
+  </si>
+  <si>
+    <t>usePassiveAffectorValueIdOverriding|Bool</t>
+  </si>
+  <si>
+    <t>Passive00102</t>
+  </si>
+  <si>
+    <t>Passive00103</t>
+  </si>
+  <si>
+    <t>Passive00104</t>
+  </si>
+  <si>
+    <t>Passive00105</t>
+  </si>
+  <si>
+    <t>level|Int</t>
+  </si>
+  <si>
+    <t>descriptionId|String</t>
+  </si>
+  <si>
+    <t>40,50,60,90</t>
+  </si>
+  <si>
+    <t>Passive00101</t>
+  </si>
+  <si>
+    <t>AtkUpBuff001</t>
+  </si>
+  <si>
+    <t>AtkUpBuff001,DefUpBuff001</t>
+  </si>
+  <si>
+    <t>nameId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_ActiveOne001_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_ActiveOne001_Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passiveAffectorValueId|String!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter|String!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -551,9 +578,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -911,36 +941,36 @@
     <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -948,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -965,13 +995,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>46</v>
+      <c r="E3">
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -985,13 +1015,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G4">
         <v>0.05</v>
@@ -1002,19 +1032,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G5">
         <v>0.05</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1022,10 +1052,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -1034,10 +1064,10 @@
         <v>0.05</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
+        <v>74</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="J6" t="s">
         <v>9</v>
@@ -1045,13 +1075,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1060,7 +1090,7 @@
         <v>0.05</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -1071,7 +1101,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -1088,13 +1118,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" t="s">
-        <v>46</v>
+      <c r="E9">
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
@@ -1108,13 +1138,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G10">
         <v>0.05</v>
@@ -1125,19 +1155,19 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G11">
         <v>0.05</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1145,10 +1175,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -1157,7 +1187,7 @@
         <v>0.05</v>
       </c>
       <c r="H12" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
@@ -1165,13 +1195,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1180,7 +1210,7 @@
         <v>0.05</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
@@ -1188,10 +1218,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -1205,16 +1235,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
@@ -1225,16 +1255,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G16">
         <v>0.05</v>
@@ -1262,18 +1292,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1284,7 +1314,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1295,7 +1325,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1306,7 +1336,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1344,28 +1374,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1376,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1396,13 +1426,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>6.5</v>
@@ -1422,13 +1452,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -1448,13 +1478,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>4.5</v>
@@ -1485,56 +1515,57 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>71</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1545,9 +1576,6 @@
       <c r="E2">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
@@ -1555,33 +1583,30 @@
         <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>71</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -1589,20 +1614,14 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
@@ -1610,27 +1629,24 @@
         <v>0</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>2</v>
+      <c r="B5" t="s">
+        <v>76</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -1646,21 +1662,18 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
-        <v>2</v>
+      <c r="B6" t="s">
+        <v>76</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
@@ -1673,19 +1686,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1707,9 +1714,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1717,33 +1724,45 @@
     <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="8" max="8" width="30.75" customWidth="1"/>
+    <col min="9" max="9" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1755,15 +1774,21 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1775,15 +1800,13 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1795,15 +1818,12 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1815,15 +1835,12 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1835,15 +1852,12 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1851,13 +1865,10 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1865,13 +1876,10 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1879,13 +1887,10 @@
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1893,13 +1898,10 @@
       <c r="C10">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1907,8 +1909,75 @@
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
-        <v>22</v>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0664E2F8-23D5-4EDB-AA39-FA88F8478783}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7AD6E6-2BA5-494F-8B20-E6A5FE9DA114}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="99">
   <si>
     <t>Action00101</t>
   </si>
@@ -256,39 +256,9 @@
     <t>Passive002</t>
   </si>
   <si>
-    <t>ActiveOne00101</t>
-  </si>
-  <si>
-    <t>ActiveOne00102</t>
-  </si>
-  <si>
     <t>Base Layer.Attack.skill1_2</t>
   </si>
   <si>
-    <t>ActiveOne00103</t>
-  </si>
-  <si>
-    <t>ActiveOne00104</t>
-  </si>
-  <si>
-    <t>ActiveOne00105</t>
-  </si>
-  <si>
-    <t>ActiveTwo00101</t>
-  </si>
-  <si>
-    <t>ActiveTwo00102</t>
-  </si>
-  <si>
-    <t>ActiveTwo00103</t>
-  </si>
-  <si>
-    <t>ActiveTwo00104</t>
-  </si>
-  <si>
-    <t>ActiveTwo00105</t>
-  </si>
-  <si>
     <t>RangeNormal</t>
   </si>
   <si>
@@ -460,9 +430,6 @@
     <t>cooltime|Float</t>
   </si>
   <si>
-    <t>passiveAffectorValueId|String</t>
-  </si>
-  <si>
     <t>useCooltimeOverriding|Bool</t>
   </si>
   <si>
@@ -472,18 +439,6 @@
     <t>usePassiveAffectorValueIdOverriding|Bool</t>
   </si>
   <si>
-    <t>Passive00102</t>
-  </si>
-  <si>
-    <t>Passive00103</t>
-  </si>
-  <si>
-    <t>Passive00104</t>
-  </si>
-  <si>
-    <t>Passive00105</t>
-  </si>
-  <si>
     <t>level|Int</t>
   </si>
   <si>
@@ -493,9 +448,6 @@
     <t>40,50,60,90</t>
   </si>
   <si>
-    <t>Passive00101</t>
-  </si>
-  <si>
     <t>AtkUpBuff001</t>
   </si>
   <si>
@@ -519,6 +471,28 @@
   </si>
   <si>
     <t>parameter|String!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descriptionId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_ActiveOne001_Name</t>
+  </si>
+  <si>
+    <t>Skill_ActiveOne001_Description</t>
+  </si>
+  <si>
+    <t>useNameIdOverriding|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useDescriptionIdOverriding|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passiveAffectorValueId|String!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,34 +917,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -978,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -995,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1015,13 +989,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G4">
         <v>0.05</v>
@@ -1032,19 +1006,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G5">
         <v>0.05</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1052,10 +1026,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -1064,10 +1038,10 @@
         <v>0.05</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
         <v>9</v>
@@ -1075,13 +1049,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1090,7 +1064,7 @@
         <v>0.05</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -1101,7 +1075,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -1118,7 +1092,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -1138,13 +1112,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G10">
         <v>0.05</v>
@@ -1155,19 +1129,19 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>0.05</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1175,10 +1149,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -1187,7 +1161,7 @@
         <v>0.05</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
@@ -1195,13 +1169,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1210,7 +1184,7 @@
         <v>0.05</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
@@ -1218,10 +1192,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -1235,16 +1209,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
@@ -1255,16 +1229,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G16">
         <v>0.05</v>
@@ -1292,18 +1266,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1314,7 +1288,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1325,7 +1299,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1336,7 +1310,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1374,28 +1348,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1406,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1426,13 +1400,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>6.5</v>
@@ -1452,13 +1426,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -1478,13 +1452,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>4.5</v>
@@ -1512,11 +1486,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1525,47 +1497,61 @@
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.375" customWidth="1"/>
+    <col min="6" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="9" max="9" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.375" customWidth="1"/>
+    <col min="12" max="13" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" t="s">
-        <v>91</v>
-      </c>
       <c r="H1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="J1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1576,22 +1562,34 @@
       <c r="E2">
         <v>5</v>
       </c>
-      <c r="G2" t="b">
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" t="b">
+      <c r="J2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1602,42 +1600,54 @@
       <c r="E3">
         <v>5</v>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1648,22 +1658,28 @@
       <c r="E5">
         <v>5</v>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1674,33 +1690,45 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1714,270 +1742,221 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.75" customWidth="1"/>
-    <col min="8" max="8" width="30.75" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>86</v>
       </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>103</v>
+      <c r="E16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7AD6E6-2BA5-494F-8B20-E6A5FE9DA114}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E473055C-4F41-4234-8098-37FD19AB3413}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,150 +30,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PJY</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Resources\CastingObject </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>안에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>프리팹으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>있음</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PJY</author>
-  </authors>
-  <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Resources\Texture\Icon </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이미지로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>있음</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="94">
   <si>
     <t>Action00101</t>
   </si>
@@ -418,9 +276,6 @@
     <t>Rosehips03</t>
   </si>
   <si>
-    <t>id|Int</t>
-  </si>
-  <si>
     <t>passiveSkill|Bool</t>
   </si>
   <si>
@@ -454,53 +309,32 @@
     <t>AtkUpBuff001,DefUpBuff001</t>
   </si>
   <si>
+    <t>Skill_ActiveOne001_Name</t>
+  </si>
+  <si>
+    <t>Skill_ActiveOne001_Description</t>
+  </si>
+  <si>
+    <t>passiveAffectorValueId|String!</t>
+  </si>
+  <si>
     <t>nameId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_ActiveOne001_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_ActiveOne001_Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passiveAffectorValueId|String!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useNameIdOverriding|Bool</t>
+  </si>
+  <si>
+    <t>useDescriptionIdOverriding|Bool</t>
   </si>
   <si>
     <t>parameter|String!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>descriptionId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_ActiveOne001_Name</t>
-  </si>
-  <si>
-    <t>Skill_ActiveOne001_Description</t>
-  </si>
-  <si>
-    <t>useNameIdOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useDescriptionIdOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passiveAffectorValueId|String!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,19 +349,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1264,7 +1085,7 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1327,11 +1148,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1346,7 +1167,7 @@
     <col min="8" max="8" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1480,15 +1301,16 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1497,7 +1319,8 @@
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="23.5" customWidth="1"/>
     <col min="9" max="9" width="22.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.625" bestFit="1" customWidth="1"/>
@@ -1507,43 +1330,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>52</v>
       </c>
       <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>80</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>81</v>
       </c>
-      <c r="K1" t="s">
-        <v>82</v>
-      </c>
       <c r="L1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1563,10 +1386,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -1736,7 +1559,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1763,25 +1585,25 @@
         <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
         <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1797,14 +1619,9 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1821,6 +1638,9 @@
         <v>27</v>
       </c>
       <c r="G3" s="1"/>
+      <c r="H3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1835,6 +1655,9 @@
       <c r="D4" t="s">
         <v>27</v>
       </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1849,6 +1672,9 @@
       <c r="D5" t="s">
         <v>27</v>
       </c>
+      <c r="H5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1863,6 +1689,9 @@
       <c r="D6" t="s">
         <v>27</v>
       </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1912,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1923,7 +1752,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1934,7 +1763,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1945,7 +1774,7 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1956,7 +1785,7 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E473055C-4F41-4234-8098-37FD19AB3413}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0031BB73-C4F9-471D-9831-2239146777DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="94">
-  <si>
-    <t>Action00101</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
   <si>
     <t>Idle</t>
   </si>
@@ -42,52 +39,25 @@
     <t>Base Layer.Idle</t>
   </si>
   <si>
-    <t>Action00102</t>
-  </si>
-  <si>
     <t>Move</t>
   </si>
   <si>
     <t>Base Layer.Move</t>
   </si>
   <si>
-    <t>Action00103</t>
-  </si>
-  <si>
-    <t>Action00104</t>
-  </si>
-  <si>
     <t>Base Layer.Attack.skill1</t>
   </si>
   <si>
     <t>ActiveOne001</t>
   </si>
   <si>
-    <t>Action00105</t>
-  </si>
-  <si>
     <t>Base Layer.Attack.skill2</t>
   </si>
   <si>
     <t>ActiveTwo001</t>
   </si>
   <si>
-    <t>Action00201</t>
-  </si>
-  <si>
-    <t>Action00202</t>
-  </si>
-  <si>
-    <t>Action00203</t>
-  </si>
-  <si>
-    <t>Action00204</t>
-  </si>
-  <si>
     <t>ActiveOne002</t>
-  </si>
-  <si>
-    <t>Action00205</t>
   </si>
   <si>
     <t>ActiveTwo002</t>
@@ -258,22 +228,7 @@
     <t>Base Layer.Die</t>
   </si>
   <si>
-    <t>Action00106</t>
-  </si>
-  <si>
-    <t>Action00206</t>
-  </si>
-  <si>
-    <t>Rosehips01</t>
-  </si>
-  <si>
     <t>Rosehips</t>
-  </si>
-  <si>
-    <t>Rosehips02</t>
-  </si>
-  <si>
-    <t>Rosehips03</t>
   </si>
   <si>
     <t>passiveSkill|Bool</t>
@@ -718,350 +673,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F5">
+        <v>0.05</v>
+      </c>
+      <c r="G5" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>0.05</v>
+      </c>
+      <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>0.05</v>
+      </c>
+      <c r="G7" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11">
+        <v>0.05</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>0.05</v>
+      </c>
+      <c r="G12" t="s">
         <v>57</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>0.05</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E16" t="s">
         <v>59</v>
       </c>
-      <c r="J1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5">
-        <v>0.05</v>
-      </c>
-      <c r="H5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>0.05</v>
-      </c>
-      <c r="H6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>0.05</v>
-      </c>
-      <c r="H7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11">
-        <v>0.05</v>
-      </c>
-      <c r="H11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12">
-        <v>0.05</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>0.05</v>
-      </c>
-      <c r="H13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16">
+      <c r="F16">
         <v>0.05</v>
       </c>
     </row>
@@ -1087,18 +992,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1109,7 +1014,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1120,7 +1025,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1131,7 +1036,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1169,39 +1074,39 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1221,13 +1126,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>6.5</v>
@@ -1247,13 +1152,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -1273,13 +1178,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>4.5</v>
@@ -1330,66 +1235,66 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -1409,16 +1314,16 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -1441,10 +1346,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1467,16 +1372,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -1499,16 +1404,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1531,10 +1436,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1566,7 +1471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1582,33 +1487,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
         <v>78</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1617,16 +1522,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1635,16 +1540,16 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1653,15 +1558,15 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1670,15 +1575,15 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1687,15 +1592,15 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1703,7 +1608,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1711,7 +1616,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1719,7 +1624,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1727,7 +1632,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -1735,57 +1640,57 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0031BB73-C4F9-471D-9831-2239146777DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4041CE84-95CD-4DFF-B178-91F33DC8A07A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="80">
   <si>
     <t>Idle</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>parameter|String!</t>
+  </si>
+  <si>
+    <t>Attack</t>
   </si>
 </sst>
 </file>
@@ -673,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -767,6 +770,9 @@
       <c r="A5" t="s">
         <v>51</v>
       </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
@@ -872,6 +878,9 @@
       <c r="A11" t="s">
         <v>56</v>
       </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
@@ -967,6 +976,23 @@
         <v>59</v>
       </c>
       <c r="F16">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17">
         <v>0.05</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4041CE84-95CD-4DFF-B178-91F33DC8A07A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839DF491-94CD-44E9-90F5-3646ED4CFEF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="81">
   <si>
     <t>Idle</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>Attack</t>
+  </si>
+  <si>
+    <t>Madcap</t>
   </si>
 </sst>
 </file>
@@ -676,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,6 +996,68 @@
         <v>52</v>
       </c>
       <c r="F17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21">
         <v>0.05</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839DF491-94CD-44E9-90F5-3646ED4CFEF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4880A9E1-D792-4EFB-A19B-26F66ACA2A57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="82">
   <si>
     <t>Idle</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>Madcap</t>
+  </si>
+  <si>
+    <t>Swinecone</t>
   </si>
 </sst>
 </file>
@@ -679,9 +682,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1058,6 +1063,68 @@
         <v>52</v>
       </c>
       <c r="F21">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25">
         <v>0.05</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4880A9E1-D792-4EFB-A19B-26F66ACA2A57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C482756D-1D7B-407A-9C60-1E08617ADF19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="78">
   <si>
     <t>Idle</t>
   </si>
@@ -51,9 +51,6 @@
     <t>ActiveOne001</t>
   </si>
   <si>
-    <t>Base Layer.Attack.skill2</t>
-  </si>
-  <si>
     <t>ActiveTwo001</t>
   </si>
   <si>
@@ -111,187 +108,163 @@
     <t>3, 4</t>
   </si>
   <si>
+    <t>id|String</t>
+  </si>
+  <si>
+    <t>actorId|String</t>
+  </si>
+  <si>
+    <t>actionName|String</t>
+  </si>
+  <si>
+    <t>listAllowingState|String</t>
+  </si>
+  <si>
+    <t>listNotAllowingState|String</t>
+  </si>
+  <si>
+    <t>mecanimName|String</t>
+  </si>
+  <si>
+    <t>fadeDuration|Float</t>
+  </si>
+  <si>
+    <t>controlId|String</t>
+  </si>
+  <si>
+    <t>castingId|String</t>
+  </si>
+  <si>
+    <t>skillId|String</t>
+  </si>
+  <si>
+    <t>Actor001</t>
+  </si>
+  <si>
+    <t>Base Layer.Attack1</t>
+  </si>
+  <si>
+    <t>Control101</t>
+  </si>
+  <si>
+    <t>Control204</t>
+  </si>
+  <si>
+    <t>Control301</t>
+  </si>
+  <si>
+    <t>Actor002</t>
+  </si>
+  <si>
+    <t>Control201</t>
+  </si>
+  <si>
+    <t>Die</t>
+  </si>
+  <si>
+    <t>Base Layer.Die</t>
+  </si>
+  <si>
+    <t>Rosehips</t>
+  </si>
+  <si>
+    <t>passiveSkill|Bool</t>
+  </si>
+  <si>
+    <t>icon|String</t>
+  </si>
+  <si>
+    <t>cooltime|Float</t>
+  </si>
+  <si>
+    <t>useCooltimeOverriding|Bool</t>
+  </si>
+  <si>
+    <t>useMecanimNameOverriding|Bool</t>
+  </si>
+  <si>
+    <t>usePassiveAffectorValueIdOverriding|Bool</t>
+  </si>
+  <si>
+    <t>level|Int</t>
+  </si>
+  <si>
+    <t>descriptionId|String</t>
+  </si>
+  <si>
+    <t>40,50,60,90</t>
+  </si>
+  <si>
+    <t>AtkUpBuff001</t>
+  </si>
+  <si>
+    <t>AtkUpBuff001,DefUpBuff001</t>
+  </si>
+  <si>
+    <t>Skill_ActiveOne001_Name</t>
+  </si>
+  <si>
+    <t>Skill_ActiveOne001_Description</t>
+  </si>
+  <si>
+    <t>passiveAffectorValueId|String!</t>
+  </si>
+  <si>
+    <t>nameId|String</t>
+  </si>
+  <si>
+    <t>useNameIdOverriding|Bool</t>
+  </si>
+  <si>
+    <t>useDescriptionIdOverriding|Bool</t>
+  </si>
+  <si>
+    <t>parameter|String!</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Madcap</t>
+  </si>
+  <si>
+    <t>Swinecone</t>
+  </si>
+  <si>
+    <t>Base Layer.Ultimate1</t>
+  </si>
+  <si>
+    <t>Control401</t>
+  </si>
+  <si>
     <t>controlType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>inputType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id|Int</t>
   </si>
   <si>
     <t>castingType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>prefab|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>range|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>angle|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pointRadius|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>width|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>longDistance|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Control101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Control301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Control204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Control201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id|String</t>
-  </si>
-  <si>
-    <t>actorId|String</t>
-  </si>
-  <si>
-    <t>actionName|String</t>
-  </si>
-  <si>
-    <t>listAllowingState|String</t>
-  </si>
-  <si>
-    <t>listNotAllowingState|String</t>
-  </si>
-  <si>
-    <t>mecanimName|String</t>
-  </si>
-  <si>
-    <t>fadeDuration|Float</t>
-  </si>
-  <si>
-    <t>controlId|String</t>
-  </si>
-  <si>
-    <t>castingId|String</t>
-  </si>
-  <si>
-    <t>skillId|String</t>
-  </si>
-  <si>
-    <t>Actor001</t>
-  </si>
-  <si>
-    <t>Base Layer.Attack1</t>
-  </si>
-  <si>
-    <t>Control101</t>
-  </si>
-  <si>
-    <t>Control204</t>
-  </si>
-  <si>
-    <t>Control301</t>
-  </si>
-  <si>
-    <t>Actor002</t>
-  </si>
-  <si>
-    <t>Control201</t>
-  </si>
-  <si>
-    <t>Die</t>
-  </si>
-  <si>
-    <t>Base Layer.Die</t>
-  </si>
-  <si>
-    <t>Rosehips</t>
-  </si>
-  <si>
-    <t>passiveSkill|Bool</t>
-  </si>
-  <si>
-    <t>icon|String</t>
-  </si>
-  <si>
-    <t>cooltime|Float</t>
-  </si>
-  <si>
-    <t>useCooltimeOverriding|Bool</t>
-  </si>
-  <si>
-    <t>useMecanimNameOverriding|Bool</t>
-  </si>
-  <si>
-    <t>usePassiveAffectorValueIdOverriding|Bool</t>
-  </si>
-  <si>
-    <t>level|Int</t>
-  </si>
-  <si>
-    <t>descriptionId|String</t>
-  </si>
-  <si>
-    <t>40,50,60,90</t>
-  </si>
-  <si>
-    <t>AtkUpBuff001</t>
-  </si>
-  <si>
-    <t>AtkUpBuff001,DefUpBuff001</t>
-  </si>
-  <si>
-    <t>Skill_ActiveOne001_Name</t>
-  </si>
-  <si>
-    <t>Skill_ActiveOne001_Description</t>
-  </si>
-  <si>
-    <t>passiveAffectorValueId|String!</t>
-  </si>
-  <si>
-    <t>nameId|String</t>
-  </si>
-  <si>
-    <t>useNameIdOverriding|Bool</t>
-  </si>
-  <si>
-    <t>useDescriptionIdOverriding|Bool</t>
-  </si>
-  <si>
-    <t>parameter|String!</t>
-  </si>
-  <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>Madcap</t>
-  </si>
-  <si>
-    <t>Swinecone</t>
   </si>
 </sst>
 </file>
@@ -682,11 +655,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -702,36 +673,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -745,7 +716,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -762,13 +733,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F4">
         <v>0.05</v>
@@ -776,76 +747,70 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>0.05</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <v>0.05</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.05</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" t="s">
-        <v>7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>0.1</v>
@@ -853,278 +818,241 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F9">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F10">
         <v>0.05</v>
       </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F11">
         <v>0.05</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.05</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" t="s">
-        <v>8</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.05</v>
-      </c>
-      <c r="G13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" t="s">
-        <v>9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F14">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F18">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F19">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F22">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F23">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25">
         <v>0.05</v>
       </c>
     </row>
@@ -1137,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1150,13 +1078,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1172,7 +1100,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1183,24 +1111,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1214,9 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1232,39 +1169,39 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1284,13 +1221,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>6.5</v>
@@ -1310,16 +1247,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1336,13 +1273,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>4.5</v>
@@ -1393,43 +1330,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1437,22 +1374,22 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -1472,16 +1409,16 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -1504,10 +1441,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1530,16 +1467,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -1562,16 +1499,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1594,10 +1531,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1645,28 +1582,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1684,7 +1621,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1698,11 +1635,11 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1716,10 +1653,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1733,10 +1670,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1750,15 +1687,15 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1766,7 +1703,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1774,7 +1711,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1782,7 +1719,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1790,7 +1727,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -1798,57 +1735,57 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C482756D-1D7B-407A-9C60-1E08617ADF19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC09C6C3-7326-4848-805F-8C77BD28C151}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="77">
   <si>
     <t>Idle</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>inputType|Int</t>
-  </si>
-  <si>
-    <t>id|Int</t>
   </si>
   <si>
     <t>castingType|Int</t>
@@ -1169,28 +1166,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>74</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>76</v>
-      </c>
-      <c r="H1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC09C6C3-7326-4848-805F-8C77BD28C151}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDD9834-2156-4BFB-876D-C1980A4CBAA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
     <sheet name="ControlTable" sheetId="2" r:id="rId2"/>
-    <sheet name="CastingTable" sheetId="3" r:id="rId3"/>
-    <sheet name="SkillTable" sheetId="4" r:id="rId4"/>
-    <sheet name="SkillLevelTable" sheetId="5" r:id="rId5"/>
+    <sheet name="SkillTable" sheetId="4" r:id="rId3"/>
+    <sheet name="SkillLevelTable" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="61">
   <si>
     <t>Idle</t>
   </si>
@@ -60,9 +59,6 @@
     <t>ActiveTwo002</t>
   </si>
   <si>
-    <t>Casting1001</t>
-  </si>
-  <si>
     <t>S_Forward_ray</t>
   </si>
   <si>
@@ -84,27 +80,6 @@
     <t>Base Layer.Attack.skill1_2</t>
   </si>
   <si>
-    <t>RangeNormal</t>
-  </si>
-  <si>
-    <t>Casting1002</t>
-  </si>
-  <si>
-    <t>ConeNormalBlue</t>
-  </si>
-  <si>
-    <t>Casting1003</t>
-  </si>
-  <si>
-    <t>DirectionNormal</t>
-  </si>
-  <si>
-    <t>Casting1004</t>
-  </si>
-  <si>
-    <t>PointNormal</t>
-  </si>
-  <si>
     <t>3, 4</t>
   </si>
   <si>
@@ -132,9 +107,6 @@
     <t>controlId|String</t>
   </si>
   <si>
-    <t>castingId|String</t>
-  </si>
-  <si>
     <t>skillId|String</t>
   </si>
   <si>
@@ -241,27 +213,6 @@
   </si>
   <si>
     <t>inputType|Int</t>
-  </si>
-  <si>
-    <t>castingType|Int</t>
-  </si>
-  <si>
-    <t>prefab|String</t>
-  </si>
-  <si>
-    <t>range|Float</t>
-  </si>
-  <si>
-    <t>angle|Float</t>
-  </si>
-  <si>
-    <t>pointRadius|Float</t>
-  </si>
-  <si>
-    <t>width|Float</t>
-  </si>
-  <si>
-    <t>longDistance|Bool</t>
   </si>
 </sst>
 </file>
@@ -652,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,41 +616,37 @@
     <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -711,9 +658,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -728,63 +675,61 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>0.05</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F6">
         <v>0.05</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -796,9 +741,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -813,63 +758,63 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F9">
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F10">
         <v>0.05</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F11">
         <v>0.05</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -881,15 +826,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
@@ -898,40 +843,40 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F15">
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -945,13 +890,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
@@ -962,13 +907,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F18">
         <v>0.05</v>
@@ -976,16 +921,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F19">
         <v>0.05</v>
@@ -993,7 +938,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -1007,13 +952,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
         <v>3</v>
@@ -1024,13 +969,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F22">
         <v>0.05</v>
@@ -1038,16 +983,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F23">
         <v>0.05</v>
@@ -1075,18 +1020,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1097,7 +1042,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1108,7 +1053,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1119,7 +1064,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1130,13 +1075,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1147,161 +1092,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>6.5</v>
-      </c>
-      <c r="E3">
-        <v>90</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>4.5</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1.5</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -1327,43 +1117,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
         <v>52</v>
-      </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1371,22 +1161,22 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -1409,13 +1199,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -1438,10 +1228,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1467,13 +1257,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -1499,13 +1289,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1528,10 +1318,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1559,7 +1349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -1579,28 +1369,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1618,7 +1408,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1632,11 +1422,11 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1650,10 +1440,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1667,10 +1457,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1684,10 +1474,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1732,57 +1522,57 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDD9834-2156-4BFB-876D-C1980A4CBAA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D612B15-7011-4C6A-80D5-1AFEC1526C7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="62">
   <si>
     <t>Idle</t>
   </si>
@@ -213,6 +213,10 @@
   </si>
   <si>
     <t>inputType|Int</t>
+  </si>
+  <si>
+    <t>Ultimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -713,6 +717,9 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
@@ -795,6 +802,9 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D612B15-7011-4C6A-80D5-1AFEC1526C7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C45E2F8-07F2-4BCE-A274-874FC9E04B19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8415" yWindow="2145" windowWidth="29040" windowHeight="13485" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="62">
   <si>
     <t>Idle</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Base Layer.Attack.skill1_2</t>
   </si>
   <si>
-    <t>3, 4</t>
-  </si>
-  <si>
     <t>id|String</t>
   </si>
   <si>
@@ -215,8 +212,10 @@
     <t>inputType|Int</t>
   </si>
   <si>
+    <t>3, 5</t>
+  </si>
+  <si>
     <t>Ultimate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -624,33 +623,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -664,13 +663,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -681,13 +680,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
       </c>
       <c r="F4">
         <v>0.05</v>
@@ -695,48 +694,48 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
       </c>
       <c r="F5">
         <v>0.05</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
+      <c r="D6">
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>0.05</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -750,13 +749,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -767,13 +766,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
       </c>
       <c r="F9">
         <v>0.05</v>
@@ -781,42 +780,42 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10">
         <v>0.05</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
+      <c r="D11">
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>0.05</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
         <v>7</v>
@@ -824,7 +823,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -838,13 +837,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
-        <v>16</v>
+      <c r="D13">
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
@@ -855,13 +854,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
         <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
       </c>
       <c r="F14">
         <v>0.05</v>
@@ -869,16 +868,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15">
         <v>0.05</v>
@@ -886,7 +885,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -900,13 +899,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
-        <v>16</v>
+      <c r="D17">
+        <v>3</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
@@ -917,13 +916,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
         <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
       </c>
       <c r="F18">
         <v>0.05</v>
@@ -931,16 +930,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19">
         <v>0.05</v>
@@ -948,7 +947,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -962,13 +961,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
-        <v>16</v>
+      <c r="D21">
+        <v>3</v>
       </c>
       <c r="E21" t="s">
         <v>3</v>
@@ -979,13 +978,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
         <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
       </c>
       <c r="F22">
         <v>0.05</v>
@@ -993,16 +992,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23">
         <v>0.05</v>
@@ -1030,18 +1029,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1052,7 +1051,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1063,7 +1062,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1074,7 +1073,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1085,7 +1084,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1127,43 +1126,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
       <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1171,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1183,10 +1182,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -1209,7 +1208,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1241,7 +1240,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1267,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1299,7 +1298,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1331,7 +1330,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1379,28 +1378,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" t="s">
-        <v>43</v>
-      </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1418,7 +1417,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1436,7 +1435,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1453,7 +1452,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1470,7 +1469,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1487,7 +1486,7 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1538,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1549,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1560,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1571,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1582,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C45E2F8-07F2-4BCE-A274-874FC9E04B19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2206EC-2F09-4D9B-97D0-7F8DBE9112F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="2145" windowWidth="29040" windowHeight="13485" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="63">
   <si>
     <t>Idle</t>
   </si>
@@ -216,6 +216,10 @@
   </si>
   <si>
     <t>Ultimate</t>
+  </si>
+  <si>
+    <t>SlimeRabbit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -606,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -817,9 +821,6 @@
       <c r="G11" t="s">
         <v>57</v>
       </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1004,6 +1005,68 @@
         <v>26</v>
       </c>
       <c r="F23">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27">
         <v>0.05</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2206EC-2F09-4D9B-97D0-7F8DBE9112F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41942BCD-A7B1-40BE-B2D5-B10DE2CE99A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="64">
   <si>
     <t>Idle</t>
   </si>
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>SlimeRabbit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -824,7 +828,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -838,13 +842,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
@@ -855,7 +859,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -869,13 +873,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="D15">
-        <v>3</v>
+      <c r="D15" t="s">
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -883,33 +887,39 @@
       <c r="F15">
         <v>0.05</v>
       </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="F16">
-        <v>0.1</v>
+        <v>0.05</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0.1</v>
@@ -917,30 +927,30 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F19">
         <v>0.05</v>
@@ -948,30 +958,30 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F20">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0.1</v>
@@ -979,30 +989,30 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F23">
         <v>0.05</v>
@@ -1010,30 +1020,30 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F24">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0.1</v>
@@ -1041,32 +1051,111 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>62</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
         <v>53</v>
       </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
         <v>26</v>
       </c>
-      <c r="F27">
+      <c r="F32">
         <v>0.05</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41942BCD-A7B1-40BE-B2D5-B10DE2CE99A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10315A2C-6CB1-4071-930A-AD8680938B5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="65">
   <si>
     <t>Idle</t>
   </si>
@@ -224,6 +224,9 @@
   <si>
     <t>Actor003</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tortoise</t>
   </si>
 </sst>
 </file>
@@ -614,9 +617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1156,6 +1161,68 @@
         <v>26</v>
       </c>
       <c r="F32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36">
         <v>0.05</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10315A2C-6CB1-4071-930A-AD8680938B5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D40ACDD-FAD5-429C-A2F8-3D899B5ABEA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="66">
   <si>
     <t>Idle</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>Tortoise</t>
+  </si>
+  <si>
+    <t>MonsterBomb</t>
   </si>
 </sst>
 </file>
@@ -617,11 +620,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1223,6 +1224,68 @@
         <v>26</v>
       </c>
       <c r="F36">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40">
         <v>0.05</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D40ACDD-FAD5-429C-A2F8-3D899B5ABEA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E27F8D3-4D3C-4C04-B36B-7F15E422FBFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="67">
   <si>
     <t>Idle</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>MonsterBomb</t>
+  </si>
+  <si>
+    <t>NinjaAssassin</t>
   </si>
 </sst>
 </file>
@@ -620,9 +623,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1286,6 +1291,68 @@
         <v>26</v>
       </c>
       <c r="F40">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44">
         <v>0.05</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E27F8D3-4D3C-4C04-B36B-7F15E422FBFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA23706-6363-4F9A-AA0F-E2D4B66AEF17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="68">
   <si>
     <t>Idle</t>
   </si>
@@ -218,21 +218,22 @@
     <t>Ultimate</t>
   </si>
   <si>
+    <t>Tortoise</t>
+  </si>
+  <si>
+    <t>MonsterBomb</t>
+  </si>
+  <si>
+    <t>NinjaAssassin</t>
+  </si>
+  <si>
+    <t>Actor003</t>
+  </si>
+  <si>
+    <t>Actor004</t>
+  </si>
+  <si>
     <t>SlimeRabbit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tortoise</t>
-  </si>
-  <si>
-    <t>MonsterBomb</t>
-  </si>
-  <si>
-    <t>NinjaAssassin</t>
   </si>
 </sst>
 </file>
@@ -623,11 +624,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -839,7 +838,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -853,7 +852,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -870,7 +869,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -884,7 +883,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
@@ -904,7 +903,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
         <v>61</v>
@@ -922,9 +921,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -936,15 +935,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
@@ -953,9 +952,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -967,15 +966,15 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
       </c>
-      <c r="D20">
-        <v>3</v>
+      <c r="D20" t="s">
+        <v>60</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
@@ -983,188 +982,194 @@
       <c r="F20">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21">
+        <v>0.05</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>54</v>
       </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B27" t="s">
         <v>2</v>
       </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E28" t="s">
         <v>33</v>
       </c>
-      <c r="F23">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="F28">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B29" t="s">
         <v>53</v>
       </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
         <v>26</v>
       </c>
-      <c r="F24">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="F29">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>55</v>
       </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>55</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B31" t="s">
         <v>2</v>
       </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E32" t="s">
         <v>33</v>
-      </c>
-      <c r="F27">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>26</v>
       </c>
       <c r="F32">
         <v>0.05</v>
@@ -1172,30 +1177,30 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F33">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0.1</v>
@@ -1203,30 +1208,30 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F36">
         <v>0.05</v>
@@ -1234,30 +1239,30 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F37">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>0.1</v>
@@ -1265,30 +1270,30 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F39">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F40">
         <v>0.05</v>
@@ -1296,30 +1301,30 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F41">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>0.1</v>
@@ -1327,32 +1332,111 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F43">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
         <v>53</v>
       </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
         <v>26</v>
       </c>
-      <c r="F44">
+      <c r="F45">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49">
         <v>0.05</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA23706-6363-4F9A-AA0F-E2D4B66AEF17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAF0361-598E-423A-BBAB-5D1166042729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="69">
   <si>
     <t>Idle</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>SlimeRabbit</t>
+  </si>
+  <si>
+    <t>TinyRobot</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1437,6 +1440,68 @@
         <v>26</v>
       </c>
       <c r="F49">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53">
         <v>0.05</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAF0361-598E-423A-BBAB-5D1166042729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9449886-2B64-45C2-AFD3-814F8800E873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
   <si>
     <t>Idle</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Base Layer.Die</t>
   </si>
   <si>
-    <t>Rosehips</t>
-  </si>
-  <si>
     <t>passiveSkill|Bool</t>
   </si>
   <si>
@@ -194,12 +191,6 @@
     <t>Attack</t>
   </si>
   <si>
-    <t>Madcap</t>
-  </si>
-  <si>
-    <t>Swinecone</t>
-  </si>
-  <si>
     <t>Base Layer.Ultimate1</t>
   </si>
   <si>
@@ -212,31 +203,16 @@
     <t>inputType|Int</t>
   </si>
   <si>
+    <t>Ultimate</t>
+  </si>
+  <si>
+    <t>DefaultMonster</t>
+  </si>
+  <si>
+    <t>DefaultPlayer</t>
+  </si>
+  <si>
     <t>3, 5</t>
-  </si>
-  <si>
-    <t>Ultimate</t>
-  </si>
-  <si>
-    <t>Tortoise</t>
-  </si>
-  <si>
-    <t>MonsterBomb</t>
-  </si>
-  <si>
-    <t>NinjaAssassin</t>
-  </si>
-  <si>
-    <t>Actor003</t>
-  </si>
-  <si>
-    <t>Actor004</t>
-  </si>
-  <si>
-    <t>SlimeRabbit</t>
-  </si>
-  <si>
-    <t>TinyRobot</t>
   </si>
 </sst>
 </file>
@@ -627,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,7 +646,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -684,13 +660,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -701,7 +677,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -715,13 +691,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
@@ -729,40 +705,34 @@
       <c r="F5">
         <v>0.05</v>
       </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.05</v>
-      </c>
-      <c r="G6" t="s">
-        <v>57</v>
+        <v>0.1</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>0.1</v>
@@ -770,739 +740,56 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F9">
         <v>0.05</v>
       </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
         <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
       </c>
       <c r="F10">
         <v>0.05</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11">
-        <v>0.05</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15">
-        <v>0.05</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16">
-        <v>0.05</v>
-      </c>
-      <c r="G16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20">
-        <v>0.05</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21">
-        <v>0.05</v>
-      </c>
-      <c r="G21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
         <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="E41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="E47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" t="s">
-        <v>33</v>
-      </c>
-      <c r="F48">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="E51" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" t="s">
-        <v>33</v>
-      </c>
-      <c r="F52">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F53">
-        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -1530,10 +817,10 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1582,7 +869,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1630,37 +917,37 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>50</v>
-      </c>
-      <c r="M1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1680,10 +967,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -1879,25 +1166,25 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>21</v>
       </c>
       <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1915,7 +1202,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1933,7 +1220,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1950,7 +1237,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1967,7 +1254,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1984,7 +1271,7 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2035,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2046,7 +1333,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2057,7 +1344,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2068,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2079,7 +1366,7 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9449886-2B64-45C2-AFD3-814F8800E873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33442BD2-21B8-4026-BCFF-BB7936D57908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
   <si>
     <t>Idle</t>
   </si>
@@ -134,9 +135,6 @@
     <t>Base Layer.Die</t>
   </si>
   <si>
-    <t>passiveSkill|Bool</t>
-  </si>
-  <si>
     <t>icon|String</t>
   </si>
   <si>
@@ -149,9 +147,6 @@
     <t>useMecanimNameOverriding|Bool</t>
   </si>
   <si>
-    <t>usePassiveAffectorValueIdOverriding|Bool</t>
-  </si>
-  <si>
     <t>level|Int</t>
   </si>
   <si>
@@ -173,9 +168,6 @@
     <t>Skill_ActiveOne001_Description</t>
   </si>
   <si>
-    <t>passiveAffectorValueId|String!</t>
-  </si>
-  <si>
     <t>nameId|String</t>
   </si>
   <si>
@@ -191,9 +183,6 @@
     <t>Attack</t>
   </si>
   <si>
-    <t>Base Layer.Ultimate1</t>
-  </si>
-  <si>
     <t>Control401</t>
   </si>
   <si>
@@ -213,6 +202,21 @@
   </si>
   <si>
     <t>3, 5</t>
+  </si>
+  <si>
+    <t>skillType|Int</t>
+  </si>
+  <si>
+    <t>tableAffectorValueId|String!</t>
+  </si>
+  <si>
+    <t>useTableAffectorValueIdOverriding|Bool</t>
+  </si>
+  <si>
+    <t>Ultimate001</t>
+  </si>
+  <si>
+    <t>UltimatePositionBuffGanfaul</t>
   </si>
 </sst>
 </file>
@@ -646,7 +650,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -660,7 +664,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -677,7 +681,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -691,10 +695,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -708,7 +712,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -723,7 +727,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -740,7 +744,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -754,13 +758,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
@@ -777,19 +781,16 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10">
-        <v>0.05</v>
-      </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -817,10 +818,10 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -869,7 +870,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -887,11 +888,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -902,7 +901,7 @@
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.75" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="30.625" customWidth="1"/>
     <col min="9" max="9" width="22.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.375" customWidth="1"/>
@@ -917,66 +916,58 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
         <v>47</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1"/>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -990,25 +981,31 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="b">
-        <v>0</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -1022,13 +1019,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -1037,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -1048,19 +1051,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -1069,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -1080,16 +1077,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="b">
-        <v>0</v>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1112,13 +1109,19 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -1133,6 +1136,32 @@
         <v>0</v>
       </c>
       <c r="M7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1145,7 +1174,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1166,25 +1195,25 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
         <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1202,7 +1231,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1220,7 +1249,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1237,7 +1266,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1254,7 +1283,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1271,102 +1300,62 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
+      <c r="E11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33442BD2-21B8-4026-BCFF-BB7936D57908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D81E04-7E54-409A-9CA8-799B63C9ED93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
   <si>
     <t>Idle</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>UltimatePositionBuffGanfaul</t>
+  </si>
+  <si>
+    <t>Ultimate002</t>
+  </si>
+  <si>
+    <t>UltimateRemoveKeepSeries, UltimateCreateKeepSeries</t>
   </si>
 </sst>
 </file>
@@ -607,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -791,6 +797,23 @@
       </c>
       <c r="H10" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -888,7 +911,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -981,31 +1004,22 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -1019,7 +1033,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -1028,16 +1042,22 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -1051,13 +1071,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -1066,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -1077,19 +1103,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -1098,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -1109,7 +1129,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1118,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -1141,27 +1161,59 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="b">
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D81E04-7E54-409A-9CA8-799B63C9ED93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B26496-7354-4E89-9B62-852D1AFC1EF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
   <si>
     <t>Idle</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>UltimateRemoveKeepSeries, UltimateCreateKeepSeries</t>
+  </si>
+  <si>
+    <t>Actor003</t>
+  </si>
+  <si>
+    <t>Base Layer.Ultimate1</t>
   </si>
 </sst>
 </file>
@@ -613,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -814,6 +820,26 @@
       </c>
       <c r="H11" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12">
+        <v>0.05</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B26496-7354-4E89-9B62-852D1AFC1EF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19C1083-B4C1-46E9-B054-95C95923710B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
   <si>
     <t>Idle</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Base Layer.Ultimate1</t>
+  </si>
+  <si>
+    <t>Actor005</t>
   </si>
 </sst>
 </file>
@@ -619,9 +622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -839,6 +844,26 @@
         <v>0.05</v>
       </c>
       <c r="G12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13">
+        <v>0.05</v>
+      </c>
+      <c r="G13" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19C1083-B4C1-46E9-B054-95C95923710B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA60A8F1-C17B-41BA-9FCF-BE88165B9B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
   <si>
     <t>Idle</t>
   </si>
@@ -225,13 +225,19 @@
     <t>UltimateRemoveKeepSeries, UltimateCreateKeepSeries</t>
   </si>
   <si>
-    <t>Actor003</t>
-  </si>
-  <si>
     <t>Base Layer.Ultimate1</t>
   </si>
   <si>
-    <t>Actor005</t>
+    <t>Actor0201</t>
+  </si>
+  <si>
+    <t>Actor1002</t>
+  </si>
+  <si>
+    <t>Actor2103</t>
+  </si>
+  <si>
+    <t>Actor1005</t>
   </si>
 </sst>
 </file>
@@ -624,9 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -795,7 +799,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -812,7 +816,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -829,7 +833,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -838,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12">
         <v>0.05</v>
@@ -849,7 +853,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -858,7 +862,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13">
         <v>0.05</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA60A8F1-C17B-41BA-9FCF-BE88165B9B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84754D3B-A649-41EA-BEB0-07AF05F9A526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,15 +213,9 @@
     <t>useTableAffectorValueIdOverriding|Bool</t>
   </si>
   <si>
-    <t>Ultimate001</t>
-  </si>
-  <si>
     <t>UltimatePositionBuffGanfaul</t>
   </si>
   <si>
-    <t>Ultimate002</t>
-  </si>
-  <si>
     <t>UltimateRemoveKeepSeries, UltimateCreateKeepSeries</t>
   </si>
   <si>
@@ -238,6 +232,12 @@
   </si>
   <si>
     <t>Actor1005</t>
+  </si>
+  <si>
+    <t>Ultimate0201</t>
+  </si>
+  <si>
+    <t>Ultimate1002</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -799,7 +801,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -811,12 +813,12 @@
         <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -828,12 +830,12 @@
         <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -842,7 +844,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12">
         <v>0.05</v>
@@ -853,7 +855,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -862,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <v>0.05</v>
@@ -1029,16 +1031,16 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" t="b">
@@ -1059,16 +1061,16 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84754D3B-A649-41EA-BEB0-07AF05F9A526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAFE9AD-CC8D-4342-B28A-36311225D6FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
   <si>
     <t>Idle</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>Ultimate1002</t>
+  </si>
+  <si>
+    <t>Passive1109</t>
+  </si>
+  <si>
+    <t>Actor1109</t>
+  </si>
+  <si>
+    <t>ChangeAttackStateSciFiWarrior</t>
   </si>
 </sst>
 </file>
@@ -630,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -968,9 +977,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1090,31 +1101,22 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -1128,7 +1130,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -1137,16 +1139,22 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -1160,13 +1168,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -1175,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -1186,28 +1200,22 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
         <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -1218,7 +1226,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -1227,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -1250,27 +1258,59 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="b">
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAFE9AD-CC8D-4342-B28A-36311225D6FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094E908E-1CA4-48AE-A146-DB2C2A5D0B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
   <si>
     <t>Idle</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>ChangeAttackStateSciFiWarrior</t>
+  </si>
+  <si>
+    <t>IgnoreEvadeVisualSciFiWarrior</t>
+  </si>
+  <si>
+    <t>PassiveEvade1109</t>
   </si>
 </sst>
 </file>
@@ -977,10 +983,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1130,31 +1136,22 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -1168,7 +1165,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -1177,16 +1174,22 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -1200,13 +1203,19 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -1215,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -1226,28 +1235,22 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
         <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -1258,7 +1261,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -1267,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -1290,27 +1293,59 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="b">
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094E908E-1CA4-48AE-A146-DB2C2A5D0B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B519A7F8-106E-4686-A420-B0685AD4CD86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
   <si>
     <t>Idle</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>PassiveEvade1109</t>
+  </si>
+  <si>
+    <t>Actor0233</t>
   </si>
 </sst>
 </file>
@@ -643,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -885,6 +888,26 @@
         <v>0.05</v>
       </c>
       <c r="G13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14">
+        <v>0.05</v>
+      </c>
+      <c r="G14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -985,9 +1008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B519A7F8-106E-4686-A420-B0685AD4CD86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB7AFF8-A884-4D94-BBFF-3880ECE61A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
   <si>
     <t>Idle</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Actor0233</t>
+  </si>
+  <si>
+    <t>Actor2238</t>
   </si>
 </sst>
 </file>
@@ -646,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -909,6 +912,23 @@
       </c>
       <c r="G14" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB7AFF8-A884-4D94-BBFF-3880ECE61A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2945D9AA-C5D4-4FDC-BF01-AD403D942C9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
   <si>
     <t>Idle</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>Actor2238</t>
+  </si>
+  <si>
+    <t>Passive2235</t>
+  </si>
+  <si>
+    <t>Actor2235</t>
+  </si>
+  <si>
+    <t>IgnoreEvadeVisualLinhi</t>
   </si>
 </sst>
 </file>
@@ -651,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1026,9 +1035,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1206,31 +1215,22 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -1253,16 +1253,22 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -1276,13 +1282,19 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -1291,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -1302,28 +1314,22 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
         <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1334,7 +1340,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -1343,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -1366,27 +1372,59 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="b">
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2945D9AA-C5D4-4FDC-BF01-AD403D942C9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43CC9D9-BBFF-4040-A8B5-2BEC49D614BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
   <si>
     <t>Idle</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>IgnoreEvadeVisualLinhi</t>
+  </si>
+  <si>
+    <t>Actor1226</t>
+  </si>
+  <si>
+    <t>Actor1216</t>
   </si>
 </sst>
 </file>
@@ -658,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -938,6 +944,46 @@
       </c>
       <c r="F15">
         <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <v>0.05</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17">
+        <v>0.05</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1037,7 +1083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43CC9D9-BBFF-4040-A8B5-2BEC49D614BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F98590-29EA-48DE-984A-040A50F475C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="84">
   <si>
     <t>Idle</t>
   </si>
@@ -274,6 +274,15 @@
   </si>
   <si>
     <t>Actor1216</t>
+  </si>
+  <si>
+    <t>Passive3231</t>
+  </si>
+  <si>
+    <t>Actor3231</t>
+  </si>
+  <si>
+    <t>ChangeAttackStateBladeFanDancer</t>
   </si>
 </sst>
 </file>
@@ -666,7 +675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1081,9 +1090,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1290,31 +1299,22 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -1337,16 +1337,22 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -1360,13 +1366,19 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1375,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1386,28 +1398,22 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
         <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -1418,7 +1424,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -1427,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -1450,27 +1456,59 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="b">
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F98590-29EA-48DE-984A-040A50F475C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755116E8-9723-4957-8110-B187596C5BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
   <si>
     <t>Idle</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>ChangeAttackStateBladeFanDancer</t>
+  </si>
+  <si>
+    <t>Passive1216</t>
+  </si>
+  <si>
+    <t>CallHealSpSteampunkRobot</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1096,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1328,31 +1334,22 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -1366,7 +1363,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -1375,16 +1372,22 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -1398,13 +1401,19 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -1413,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -1424,28 +1433,22 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
         <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1456,7 +1459,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -1465,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -1488,27 +1491,59 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="b">
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755116E8-9723-4957-8110-B187596C5BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4EBD3A-D1AB-4D93-9866-5E21310EB32B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
   <si>
     <t>Idle</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>CallHealSpSteampunkRobot</t>
+  </si>
+  <si>
+    <t>Passive0236</t>
+  </si>
+  <si>
+    <t>Actor0236</t>
+  </si>
+  <si>
+    <t>AttackOnMovingNecromancerFour</t>
   </si>
 </sst>
 </file>
@@ -1096,9 +1105,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1363,31 +1374,22 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -1401,7 +1403,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1410,16 +1412,22 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -1433,13 +1441,19 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -1448,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1459,28 +1473,22 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
         <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1491,7 +1499,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -1500,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1523,27 +1531,59 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="b">
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4EBD3A-D1AB-4D93-9866-5E21310EB32B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BA84CA-EEC0-44A5-A8A2-AA1E860E2530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>Idle</t>
   </si>
@@ -298,6 +298,15 @@
   </si>
   <si>
     <t>AttackOnMovingNecromancerFour</t>
+  </si>
+  <si>
+    <t>Actor3212</t>
+  </si>
+  <si>
+    <t>Ultimate3212</t>
+  </si>
+  <si>
+    <t>TimeSlowMeryl, MoveSpeedUpMeryl</t>
   </si>
 </sst>
 </file>
@@ -688,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -990,7 +999,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -1008,6 +1017,23 @@
       </c>
       <c r="G17" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1105,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1403,31 +1429,22 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -1441,7 +1458,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1450,16 +1467,22 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -1473,13 +1496,19 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1488,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1499,28 +1528,22 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
         <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1531,7 +1554,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -1540,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -1563,27 +1586,59 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" t="b">
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BA84CA-EEC0-44A5-A8A2-AA1E860E2530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAF0530-4119-44C6-90F2-08E04C32D81D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
   <si>
     <t>Idle</t>
   </si>
@@ -307,6 +307,15 @@
   </si>
   <si>
     <t>TimeSlowMeryl, MoveSpeedUpMeryl</t>
+  </si>
+  <si>
+    <t>PassiveDragonTerrorBringer_Red</t>
+  </si>
+  <si>
+    <t>DragonTerrorBringer_Red</t>
+  </si>
+  <si>
+    <t>SleepingDragonTerrorBringer_Red</t>
   </si>
 </sst>
 </file>
@@ -1131,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1458,31 +1467,22 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1505,16 +1505,22 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -1528,13 +1534,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -1543,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1554,28 +1566,22 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
         <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1586,7 +1592,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -1595,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -1618,27 +1624,59 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
       <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" t="b">
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAF0530-4119-44C6-90F2-08E04C32D81D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C451490-D1D0-4FC8-93E3-C517E878ADF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>Idle</t>
   </si>
@@ -307,15 +307,6 @@
   </si>
   <si>
     <t>TimeSlowMeryl, MoveSpeedUpMeryl</t>
-  </si>
-  <si>
-    <t>PassiveDragonTerrorBringer_Red</t>
-  </si>
-  <si>
-    <t>DragonTerrorBringer_Red</t>
-  </si>
-  <si>
-    <t>SleepingDragonTerrorBringer_Red</t>
   </si>
 </sst>
 </file>
@@ -1140,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1467,22 +1458,31 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>94</v>
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1505,22 +1505,16 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
-      </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -1534,28 +1528,22 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
         <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1566,13 +1554,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -1581,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1592,7 +1586,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -1601,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -1624,19 +1618,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
       <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -1651,32 +1639,6 @@
         <v>0</v>
       </c>
       <c r="M16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C451490-D1D0-4FC8-93E3-C517E878ADF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2330382-5997-4E51-97CB-3A4A56C2194A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -216,9 +216,6 @@
     <t>UltimatePositionBuffGanfaul</t>
   </si>
   <si>
-    <t>UltimateRemoveKeepSeries, UltimateCreateKeepSeries</t>
-  </si>
-  <si>
     <t>Base Layer.Ultimate1</t>
   </si>
   <si>
@@ -307,6 +304,9 @@
   </si>
   <si>
     <t>TimeSlowMeryl, MoveSpeedUpMeryl</t>
+  </si>
+  <si>
+    <t>UltimateRemoveYuki, UltimateCreateYuki</t>
   </si>
 </sst>
 </file>
@@ -870,7 +870,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -882,12 +882,12 @@
         <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -899,12 +899,12 @@
         <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -913,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12">
         <v>0.05</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -933,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13">
         <v>0.05</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -953,7 +953,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14">
         <v>0.05</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -990,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16">
         <v>0.05</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -1010,7 +1010,7 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17">
         <v>0.05</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -1033,7 +1033,7 @@
         <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1133,9 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1196,10 +1194,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1226,16 +1224,16 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -1255,16 +1253,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
         <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -1284,16 +1282,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -1313,16 +1311,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
         <v>76</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -1342,16 +1340,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
         <v>81</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -1371,16 +1369,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -1400,16 +1398,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
         <v>86</v>
-      </c>
-      <c r="B9" t="s">
-        <v>87</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1429,16 +1427,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2330382-5997-4E51-97CB-3A4A56C2194A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B3C3A6-DB63-4ACA-AFCD-21EB95B44BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="94">
   <si>
     <t>Idle</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>UltimateRemoveYuki, UltimateCreateYuki</t>
+  </si>
+  <si>
+    <t>Passive0233</t>
+  </si>
+  <si>
+    <t>HitFlagSyria</t>
   </si>
 </sst>
 </file>
@@ -1131,9 +1137,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1456,31 +1464,22 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -1494,7 +1493,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1503,16 +1502,22 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -1526,13 +1531,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -1541,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1552,28 +1563,22 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
         <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1584,7 +1589,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -1593,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -1616,27 +1621,59 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
       <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" t="b">
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B3C3A6-DB63-4ACA-AFCD-21EB95B44BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BD7EF5-450E-43F7-A431-6AFB9C0F4743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="96">
   <si>
     <t>Idle</t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>HitFlagSyria</t>
+  </si>
+  <si>
+    <t>Passive3212</t>
+  </si>
+  <si>
+    <t>HealSpOnDamageMeryl</t>
   </si>
 </sst>
 </file>
@@ -706,7 +712,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1137,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1435,16 +1441,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -1464,16 +1470,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -1493,31 +1499,22 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -1531,7 +1528,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1540,16 +1537,22 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>5</v>
       </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -1563,13 +1566,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -1578,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1589,28 +1598,22 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
         <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1621,7 +1624,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -1630,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -1653,27 +1656,59 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
       </c>
       <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
         <v>2</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" t="b">
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BD7EF5-450E-43F7-A431-6AFB9C0F4743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AC7303-841E-4151-A487-67D88AE9AB88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="100">
   <si>
     <t>Idle</t>
   </si>
@@ -237,21 +237,6 @@
     <t>Ultimate1002</t>
   </si>
   <si>
-    <t>Passive1109</t>
-  </si>
-  <si>
-    <t>Actor1109</t>
-  </si>
-  <si>
-    <t>ChangeAttackStateSciFiWarrior</t>
-  </si>
-  <si>
-    <t>IgnoreEvadeVisualSciFiWarrior</t>
-  </si>
-  <si>
-    <t>PassiveEvade1109</t>
-  </si>
-  <si>
     <t>Actor0233</t>
   </si>
   <si>
@@ -319,6 +304,33 @@
   </si>
   <si>
     <t>HealSpOnDamageMeryl</t>
+  </si>
+  <si>
+    <t>Passive2120</t>
+  </si>
+  <si>
+    <t>Actor2120</t>
+  </si>
+  <si>
+    <t>ChangeAttackStateRockElemental</t>
+  </si>
+  <si>
+    <t>Passive0113</t>
+  </si>
+  <si>
+    <t>Actor0113</t>
+  </si>
+  <si>
+    <t>IgnoreEvadeVisualGreekWarrior</t>
+  </si>
+  <si>
+    <t>Passive1039</t>
+  </si>
+  <si>
+    <t>Actor1039</t>
+  </si>
+  <si>
+    <t>IgnoreEvadeVisualEnergyShieldRobot</t>
   </si>
 </sst>
 </file>
@@ -712,7 +724,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -956,7 +968,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -976,7 +988,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -993,7 +1005,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -1013,7 +1025,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -1033,7 +1045,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -1045,7 +1057,7 @@
         <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1143,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1247,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -1267,16 +1279,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -1296,16 +1308,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -1325,16 +1337,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -1354,16 +1366,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -1383,16 +1395,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -1412,16 +1424,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1441,16 +1453,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -1473,10 +1485,10 @@
         <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
         <v>90</v>
@@ -1499,16 +1511,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1528,31 +1540,22 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -1566,7 +1569,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1575,16 +1578,22 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>5</v>
       </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -1598,13 +1607,19 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -1613,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1624,28 +1639,22 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
         <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1656,7 +1665,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -1665,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -1688,27 +1697,59 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
       <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
         <v>2</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" t="b">
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AC7303-841E-4151-A487-67D88AE9AB88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335A6AAB-3237-4379-B308-3EC610356A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="103">
   <si>
     <t>Idle</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>Ultimate1002</t>
+  </si>
+  <si>
+    <t>Passive1109</t>
+  </si>
+  <si>
+    <t>Actor1109</t>
+  </si>
+  <si>
+    <t>ChangeAttackStateSciFiWarrior</t>
   </si>
   <si>
     <t>Actor0233</t>
@@ -968,7 +977,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -988,7 +997,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -1005,7 +1014,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -1025,7 +1034,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -1045,7 +1054,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -1057,7 +1066,7 @@
         <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1155,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1259,7 +1268,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -1279,16 +1288,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -1337,16 +1346,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -1366,16 +1375,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -1395,16 +1404,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -1427,13 +1436,13 @@
         <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1453,10 +1462,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1482,16 +1491,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -1511,16 +1520,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1543,10 +1552,10 @@
         <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
         <v>88</v>
@@ -1569,31 +1578,22 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1616,16 +1616,22 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>5</v>
       </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1639,13 +1645,19 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -1654,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1665,28 +1677,22 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
         <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1697,7 +1703,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -1706,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1729,27 +1735,59 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" t="b">
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335A6AAB-3237-4379-B308-3EC610356A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5301B081-AC62-41CF-8C91-A16F9D9687B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
   <si>
     <t>Idle</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>IgnoreEvadeVisualEnergyShieldRobot</t>
+  </si>
+  <si>
+    <t>Actor0125</t>
   </si>
 </sst>
 </file>
@@ -730,11 +733,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1067,6 +1068,26 @@
       </c>
       <c r="H18" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19">
+        <v>0.05</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5301B081-AC62-41CF-8C91-A16F9D9687B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20B408A-8B10-4157-AB38-1CABFFA1A06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="106">
   <si>
     <t>Idle</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>Actor0125</t>
+  </si>
+  <si>
+    <t>Ultimate0125</t>
+  </si>
+  <si>
+    <t>UltimateRemoveRpgKnight</t>
   </si>
 </sst>
 </file>
@@ -735,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1185,11 +1191,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1628,31 +1632,22 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>105</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1666,7 +1661,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1675,16 +1670,22 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>5</v>
       </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -1698,13 +1699,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1713,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1724,28 +1731,22 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
         <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" t="b">
-        <v>0</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -1756,7 +1757,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -1765,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -1788,27 +1789,59 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
       </c>
       <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" t="b">
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20B408A-8B10-4157-AB38-1CABFFA1A06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBFBDCF-F212-4178-8426-92EEE29F3F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="106">
   <si>
     <t>Idle</t>
   </si>
@@ -741,7 +741,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1094,6 +1096,9 @@
       </c>
       <c r="G19" t="s">
         <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1193,7 +1198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBFBDCF-F212-4178-8426-92EEE29F3F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9760541C-4B4F-405E-8911-B16F6AC822BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="109">
   <si>
     <t>Idle</t>
   </si>
@@ -349,6 +349,15 @@
   </si>
   <si>
     <t>UltimateRemoveRpgKnight</t>
+  </si>
+  <si>
+    <t>Actor3022</t>
+  </si>
+  <si>
+    <t>Ultimate3022</t>
+  </si>
+  <si>
+    <t>UltimatePositionBuffDualWarrior</t>
   </si>
 </sst>
 </file>
@@ -739,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1088,17 +1097,28 @@
       <c r="D19">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19">
-        <v>0.05</v>
-      </c>
       <c r="G19" t="s">
         <v>50</v>
       </c>
       <c r="H19" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1196,9 +1216,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1666,31 +1688,22 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>108</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -1704,7 +1717,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -1713,16 +1726,22 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>5</v>
       </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -1736,13 +1755,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -1751,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -1762,28 +1787,22 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
         <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" t="b">
-        <v>0</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1794,7 +1813,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -1803,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -1826,27 +1845,59 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
       <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
         <v>2</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" t="b">
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9760541C-4B4F-405E-8911-B16F6AC822BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F744D7-3828-445E-BF9D-5ADC6CC1DB66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="112">
   <si>
     <t>Idle</t>
   </si>
@@ -358,6 +358,15 @@
   </si>
   <si>
     <t>UltimatePositionBuffDualWarrior</t>
+  </si>
+  <si>
+    <t>Actor3021</t>
+  </si>
+  <si>
+    <t>Ultimate3021</t>
+  </si>
+  <si>
+    <t>UltimateOnMoveBuffSoldier</t>
   </si>
 </sst>
 </file>
@@ -748,11 +757,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1119,6 +1126,23 @@
       </c>
       <c r="H20" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1216,7 +1240,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1717,31 +1741,22 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>111</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -1755,7 +1770,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1764,16 +1779,22 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>5</v>
       </c>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -1787,13 +1808,19 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -1802,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1813,28 +1840,22 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
         <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="b">
-        <v>0</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -1845,7 +1866,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -1854,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -1877,27 +1898,59 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
         <v>2</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" t="b">
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F744D7-3828-445E-BF9D-5ADC6CC1DB66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186149DA-3CE5-42A4-ADB5-F17377BF6222}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="113">
   <si>
     <t>Idle</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>UltimateOnMoveBuffSoldier</t>
+  </si>
+  <si>
+    <t>Actor2010</t>
   </si>
 </sst>
 </file>
@@ -757,9 +760,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1143,6 +1148,26 @@
       </c>
       <c r="H21" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22">
+        <v>0.05</v>
+      </c>
+      <c r="G22" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1242,9 +1267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186149DA-3CE5-42A4-ADB5-F17377BF6222}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4084AA-C3CD-49AF-BD36-0F74DD7F6BAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="113">
   <si>
     <t>Idle</t>
   </si>
@@ -760,11 +760,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1167,6 +1165,26 @@
         <v>0.05</v>
       </c>
       <c r="G22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23">
+        <v>0.05</v>
+      </c>
+      <c r="G23" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4084AA-C3CD-49AF-BD36-0F74DD7F6BAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF2F92F-B323-4BFC-8850-444793B10AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="116">
   <si>
     <t>Idle</t>
   </si>
@@ -370,6 +370,15 @@
   </si>
   <si>
     <t>Actor2010</t>
+  </si>
+  <si>
+    <t>Actor1108</t>
+  </si>
+  <si>
+    <t>Ultimate1108</t>
+  </si>
+  <si>
+    <t>UltimateRangeDynaMob</t>
   </si>
 </sst>
 </file>
@@ -760,9 +769,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1186,6 +1195,23 @@
       </c>
       <c r="G23" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1283,9 +1309,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1811,31 +1839,22 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>115</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -1849,7 +1868,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1858,16 +1877,22 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>5</v>
       </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -1881,13 +1906,19 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -1896,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -1907,28 +1938,22 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
         <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" t="b">
-        <v>0</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -1939,7 +1964,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -1948,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -1971,27 +1996,59 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
       <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" t="b">
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF2F92F-B323-4BFC-8850-444793B10AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F5E22C-4FF4-4959-82D6-01BF335F8EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="119">
   <si>
     <t>Idle</t>
   </si>
@@ -379,6 +379,15 @@
   </si>
   <si>
     <t>UltimateRangeDynaMob</t>
+  </si>
+  <si>
+    <t>Actor3117</t>
+  </si>
+  <si>
+    <t>Ultimate3117</t>
+  </si>
+  <si>
+    <t>UltimateLifeTimeKachujin</t>
   </si>
 </sst>
 </file>
@@ -769,9 +778,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1211,6 +1222,23 @@
         <v>50</v>
       </c>
       <c r="H24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1309,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1868,31 +1896,22 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>118</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -1906,7 +1925,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1915,16 +1934,22 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>5</v>
       </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -1938,13 +1963,19 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -1953,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -1964,28 +1995,22 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
         <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" t="b">
-        <v>0</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -1996,7 +2021,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
@@ -2005,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -2028,27 +2053,59 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
       <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
         <v>2</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" t="b">
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F5E22C-4FF4-4959-82D6-01BF335F8EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6674DC-3B92-465F-8CD5-21DF33B43CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -780,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1239,7 +1239,7 @@
         <v>50</v>
       </c>
       <c r="H25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1339,7 +1339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6674DC-3B92-465F-8CD5-21DF33B43CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5689109A-5807-4E62-87F0-1B4305CAE857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="120">
   <si>
     <t>Idle</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>UltimateLifeTimeKachujin</t>
+  </si>
+  <si>
+    <t>Actor1029</t>
   </si>
 </sst>
 </file>
@@ -778,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1240,6 +1243,26 @@
       </c>
       <c r="H25" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26">
+        <v>0.05</v>
+      </c>
+      <c r="G26" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5689109A-5807-4E62-87F0-1B4305CAE857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1B4A9B-B13C-4303-8B10-C669B7D2A64A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="121">
   <si>
     <t>Idle</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>Actor1029</t>
+  </si>
+  <si>
+    <t>Actor0024</t>
   </si>
 </sst>
 </file>
@@ -781,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1262,6 +1265,26 @@
         <v>0.05</v>
       </c>
       <c r="G26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27">
+        <v>0.05</v>
+      </c>
+      <c r="G27" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1B4A9B-B13C-4303-8B10-C669B7D2A64A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBC3B5D-415C-4640-A4D1-3D41780ED596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="123">
   <si>
     <t>Idle</t>
   </si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <t>Actor0024</t>
+  </si>
+  <si>
+    <t>Ultimate1039</t>
+  </si>
+  <si>
+    <t>UltimateCreateEnergyShieldRobot</t>
   </si>
 </sst>
 </file>
@@ -784,11 +790,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1286,6 +1290,23 @@
       </c>
       <c r="G27" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1383,11 +1404,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1971,31 +1990,22 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="G20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>122</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -2009,7 +2019,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -2018,16 +2028,22 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -2041,13 +2057,19 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -2056,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2067,28 +2089,22 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
         <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" t="b">
-        <v>0</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2099,7 +2115,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -2108,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -2131,27 +2147,59 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" t="b">
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBC3B5D-415C-4640-A4D1-3D41780ED596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB766A85-2898-4AAD-867E-2A8A55352BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="121">
   <si>
     <t>Idle</t>
   </si>
@@ -394,12 +394,6 @@
   </si>
   <si>
     <t>Actor0024</t>
-  </si>
-  <si>
-    <t>Ultimate1039</t>
-  </si>
-  <si>
-    <t>UltimateCreateEnergyShieldRobot</t>
   </si>
 </sst>
 </file>
@@ -1302,11 +1296,14 @@
       <c r="D28">
         <v>5</v>
       </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28">
+        <v>0.05</v>
+      </c>
       <c r="G28" t="s">
         <v>50</v>
-      </c>
-      <c r="H28" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1404,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1990,22 +1987,31 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>122</v>
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -2019,7 +2025,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -2028,22 +2034,16 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
-      <c r="G21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" t="s">
-        <v>44</v>
-      </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -2057,28 +2057,22 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
       <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
         <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" t="b">
-        <v>0</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2089,13 +2083,19 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -2124,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -2147,19 +2147,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2174,32 +2168,6 @@
         <v>0</v>
       </c>
       <c r="M25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB766A85-2898-4AAD-867E-2A8A55352BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709AB687-6A34-466B-A8A9-116F799E21EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="122">
   <si>
     <t>Idle</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>Actor0024</t>
+  </si>
+  <si>
+    <t>Actor0037</t>
   </si>
 </sst>
 </file>
@@ -784,9 +787,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1303,6 +1308,26 @@
         <v>0.05</v>
       </c>
       <c r="G28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29">
+        <v>0.05</v>
+      </c>
+      <c r="G29" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1403,7 +1428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709AB687-6A34-466B-A8A9-116F799E21EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7846B4-907E-4ED3-9E45-292B363400AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="125">
   <si>
     <t>Idle</t>
   </si>
@@ -397,6 +397,15 @@
   </si>
   <si>
     <t>Actor0037</t>
+  </si>
+  <si>
+    <t>Ultimate0240</t>
+  </si>
+  <si>
+    <t>Actor0240</t>
+  </si>
+  <si>
+    <t>UltimateCreateIceMagician</t>
   </si>
 </sst>
 </file>
@@ -787,7 +796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1329,6 +1338,23 @@
       </c>
       <c r="G29" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2012,31 +2038,22 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="G20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>124</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -2050,7 +2067,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -2059,16 +2076,22 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -2082,13 +2105,19 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -2097,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2108,28 +2137,22 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
         <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" t="b">
-        <v>0</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2140,7 +2163,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -2149,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -2172,27 +2195,59 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" t="b">
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7846B4-907E-4ED3-9E45-292B363400AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A8F4CC-861A-4E20-930B-EDFB41657E0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="125">
   <si>
     <t>Idle</t>
   </si>
@@ -796,7 +796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1355,6 +1355,26 @@
       </c>
       <c r="H30" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31">
+        <v>0.05</v>
+      </c>
+      <c r="G31" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A8F4CC-861A-4E20-930B-EDFB41657E0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C92D882-8E15-442B-92C0-8E83CFC6BE1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="126">
   <si>
     <t>Idle</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>UltimateCreateIceMagician</t>
+  </si>
+  <si>
+    <t>Actor2011</t>
   </si>
 </sst>
 </file>
@@ -796,11 +799,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1374,6 +1375,26 @@
         <v>0.05</v>
       </c>
       <c r="G31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32">
+        <v>0.05</v>
+      </c>
+      <c r="G32" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C92D882-8E15-442B-92C0-8E83CFC6BE1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00568199-4097-482D-BE60-D85FED638BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="128">
   <si>
     <t>Idle</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>Actor2011</t>
+  </si>
+  <si>
+    <t>Actor3019</t>
+  </si>
+  <si>
+    <t>actionCooltime|Float</t>
   </si>
 </sst>
 </file>
@@ -799,7 +805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -812,9 +818,10 @@
     <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -854,7 +864,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -871,7 +881,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -885,7 +895,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -902,7 +912,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -917,7 +927,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -934,7 +944,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -948,7 +958,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -968,7 +978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -985,7 +995,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -1002,7 +1012,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -1022,7 +1032,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -1042,7 +1052,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -1062,7 +1072,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -1079,7 +1089,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1396,6 +1406,29 @@
       </c>
       <c r="G32" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33">
+        <v>0.05</v>
+      </c>
+      <c r="G33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33">
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00568199-4097-482D-BE60-D85FED638BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875F2D36-0A5F-4859-BC2F-BFAE6139CB2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="132">
   <si>
     <t>Idle</t>
   </si>
@@ -415,6 +415,18 @@
   </si>
   <si>
     <t>actionCooltime|Float</t>
+  </si>
+  <si>
+    <t>Ultimate0104</t>
+  </si>
+  <si>
+    <t>Actor0104</t>
+  </si>
+  <si>
+    <t>UltimateCreateBei, UltimateCreateBeiBig</t>
+  </si>
+  <si>
+    <t>Actor0007</t>
   </si>
 </sst>
 </file>
@@ -805,9 +817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1429,6 +1443,49 @@
       </c>
       <c r="I33">
         <v>6.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34">
+        <v>0.05</v>
+      </c>
+      <c r="G34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I35">
+        <v>2.2000000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1526,9 +1583,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2141,31 +2198,22 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="G21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>130</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -2179,7 +2227,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -2188,16 +2236,22 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>5</v>
       </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -2211,13 +2265,19 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -2226,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2237,28 +2297,22 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
         <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" t="b">
-        <v>0</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2269,7 +2323,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -2278,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>5</v>
@@ -2301,27 +2355,59 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
         <v>2</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" t="b">
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875F2D36-0A5F-4859-BC2F-BFAE6139CB2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A18489-5315-435F-BC9C-BC019FA6A9AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="135">
   <si>
     <t>Idle</t>
   </si>
@@ -427,6 +427,15 @@
   </si>
   <si>
     <t>Actor0007</t>
+  </si>
+  <si>
+    <t>Actor3242</t>
+  </si>
+  <si>
+    <t>Ultimate3242</t>
+  </si>
+  <si>
+    <t>UltimateRemoveUnicornCharacter, UltimateCreateUnicornCharacter</t>
   </si>
 </sst>
 </file>
@@ -817,7 +826,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1485,6 +1494,26 @@
         <v>128</v>
       </c>
       <c r="I35">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" t="s">
+        <v>133</v>
+      </c>
+      <c r="I36">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -1583,7 +1612,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2227,31 +2256,22 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>134</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -2265,7 +2285,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -2274,16 +2294,22 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>5</v>
       </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s">
+        <v>44</v>
+      </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -2297,13 +2323,19 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2312,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2323,28 +2355,22 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
         <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" t="b">
-        <v>0</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2355,7 +2381,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -2364,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -2387,27 +2413,59 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
       <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" t="b">
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A18489-5315-435F-BC9C-BC019FA6A9AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D2ECF9-DAD9-4823-BBF4-4DE09A0DB544}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="138">
   <si>
     <t>Idle</t>
   </si>
@@ -436,6 +436,15 @@
   </si>
   <si>
     <t>UltimateRemoveUnicornCharacter, UltimateCreateUnicornCharacter</t>
+  </si>
+  <si>
+    <t>Ultimate1141</t>
+  </si>
+  <si>
+    <t>Actor1141</t>
+  </si>
+  <si>
+    <t>UltimateRemoveAngelicWarrior, UltimateAttackSpeedUpAngelicWarrior</t>
   </si>
 </sst>
 </file>
@@ -826,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1513,8 +1522,22 @@
       <c r="H36" t="s">
         <v>133</v>
       </c>
-      <c r="I36">
-        <v>2.2000000000000002</v>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1612,9 +1635,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2285,31 +2310,22 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="G23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>137</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -2323,7 +2339,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -2332,16 +2348,22 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -2355,13 +2377,19 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2370,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2381,28 +2409,22 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
         <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" t="b">
-        <v>0</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -2413,7 +2435,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -2422,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -2445,27 +2467,59 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" t="b">
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D2ECF9-DAD9-4823-BBF4-4DE09A0DB544}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00F4DF8-A651-47B0-9946-131E0F528C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="139">
   <si>
     <t>Idle</t>
   </si>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t>UltimateRemoveAngelicWarrior, UltimateAttackSpeedUpAngelicWarrior</t>
+  </si>
+  <si>
+    <t>Actor2015</t>
   </si>
 </sst>
 </file>
@@ -835,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1538,6 +1541,26 @@
       </c>
       <c r="H37" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38">
+        <v>0.05</v>
+      </c>
+      <c r="G38" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1637,9 +1660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00F4DF8-A651-47B0-9946-131E0F528C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5323FFC1-7225-4936-B3BA-C5F1CCDAB245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="139">
   <si>
     <t>Idle</t>
   </si>
@@ -838,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1560,6 +1560,26 @@
         <v>0.05</v>
       </c>
       <c r="G38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39">
+        <v>0.05</v>
+      </c>
+      <c r="G39" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5323FFC1-7225-4936-B3BA-C5F1CCDAB245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85F2D61-950E-4F78-A704-B1780F298F25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="141">
   <si>
     <t>Idle</t>
   </si>
@@ -448,6 +448,12 @@
   </si>
   <si>
     <t>Actor2015</t>
+  </si>
+  <si>
+    <t>Ultimate2238</t>
+  </si>
+  <si>
+    <t>UltimateCreateGirlArcher</t>
   </si>
 </sst>
 </file>
@@ -838,11 +844,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1581,6 +1585,23 @@
       </c>
       <c r="G39" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1678,9 +1699,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2380,31 +2401,22 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>140</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -2418,7 +2430,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -2427,16 +2439,22 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>5</v>
       </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" t="s">
+        <v>44</v>
+      </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -2450,13 +2468,19 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -2465,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -2476,28 +2500,22 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
         <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="b">
-        <v>0</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2508,7 +2526,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -2517,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -2540,27 +2558,59 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
         <v>2</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" t="b">
-        <v>0</v>
-      </c>
-      <c r="M29" t="b">
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85F2D61-950E-4F78-A704-B1780F298F25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9139DCED-71D7-4EB1-A47D-7D187B42DEE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="143">
   <si>
     <t>Idle</t>
   </si>
@@ -454,6 +454,12 @@
   </si>
   <si>
     <t>UltimateCreateGirlArcher</t>
+  </si>
+  <si>
+    <t>Ultimate3231</t>
+  </si>
+  <si>
+    <t>UltimateCreateBladeFanDancer, UltimateDelayedCreateBladeFanDancer</t>
   </si>
 </sst>
 </file>
@@ -844,9 +850,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1602,6 +1610,23 @@
       </c>
       <c r="H40" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1699,9 +1724,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2430,31 +2457,22 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="G25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>142</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -2468,7 +2486,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -2477,16 +2495,22 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>5</v>
       </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -2500,13 +2524,19 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -2515,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2526,28 +2556,22 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
         <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" t="b">
-        <v>0</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2558,7 +2582,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -2567,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -2590,27 +2614,59 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
         <v>2</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" t="b">
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9139DCED-71D7-4EB1-A47D-7D187B42DEE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43654422-7D83-4E46-85EE-612F736279A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -852,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1156,7 +1156,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1175,8 +1175,11 @@
       <c r="G17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -1244,7 +1247,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>119</v>
       </c>
@@ -1338,7 +1341,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -1415,7 +1418,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -1726,7 +1729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43654422-7D83-4E46-85EE-612F736279A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5CAF5F-639B-4972-A067-9D2249F72729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="145">
   <si>
     <t>Idle</t>
   </si>
@@ -460,6 +460,12 @@
   </si>
   <si>
     <t>UltimateCreateBladeFanDancer, UltimateDelayedCreateBladeFanDancer</t>
+  </si>
+  <si>
+    <t>Ultimate1109</t>
+  </si>
+  <si>
+    <t>UltimateTransportAttackSciFiWarrior</t>
   </si>
 </sst>
 </file>
@@ -850,9 +856,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1630,6 +1636,26 @@
       </c>
       <c r="H41" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" t="s">
+        <v>143</v>
+      </c>
+      <c r="I42">
+        <v>4.0999999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1727,9 +1753,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2489,31 +2515,22 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-      <c r="G26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>144</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -2527,7 +2544,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -2536,16 +2553,22 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>5</v>
       </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s">
+        <v>44</v>
+      </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -2559,13 +2582,19 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -2574,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2585,28 +2614,22 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
         <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29">
-        <v>5</v>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" t="b">
-        <v>0</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2617,7 +2640,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -2626,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -2649,27 +2672,59 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
       <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
         <v>2</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" t="b">
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5CAF5F-639B-4972-A067-9D2249F72729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDDFE62-1862-40EE-A20B-56477B87CB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
     <t>Ultimate1109</t>
   </si>
   <si>
-    <t>UltimateTransportAttackSciFiWarrior</t>
+    <t>UltimateTransportSummonSciFiWarrior</t>
   </si>
 </sst>
 </file>
@@ -858,9 +858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDDFE62-1862-40EE-A20B-56477B87CB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B75474-5962-4553-8D62-F2B47FE3A9D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -417,15 +417,9 @@
     <t>actionCooltime|Float</t>
   </si>
   <si>
-    <t>Ultimate0104</t>
-  </si>
-  <si>
     <t>Actor0104</t>
   </si>
   <si>
-    <t>UltimateCreateBei, UltimateCreateBeiBig</t>
-  </si>
-  <si>
     <t>Actor0007</t>
   </si>
   <si>
@@ -466,6 +460,12 @@
   </si>
   <si>
     <t>UltimateTransportSummonSciFiWarrior</t>
+  </si>
+  <si>
+    <t>Ultimate2015</t>
+  </si>
+  <si>
+    <t>UltimateCreateYuka, UltimateCreateYukaBig</t>
   </si>
 </sst>
 </file>
@@ -858,7 +858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1487,7 +1489,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
         <v>53</v>
@@ -1510,7 +1512,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
         <v>53</v>
@@ -1518,19 +1520,19 @@
       <c r="D35">
         <v>5</v>
       </c>
+      <c r="E35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35">
+        <v>0.05</v>
+      </c>
       <c r="G35" t="s">
         <v>50</v>
-      </c>
-      <c r="H35" t="s">
-        <v>128</v>
-      </c>
-      <c r="I35">
-        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
@@ -1542,12 +1544,12 @@
         <v>50</v>
       </c>
       <c r="H36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
@@ -1559,12 +1561,12 @@
         <v>50</v>
       </c>
       <c r="H37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -1572,14 +1574,14 @@
       <c r="D38">
         <v>5</v>
       </c>
-      <c r="E38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38">
-        <v>0.05</v>
-      </c>
       <c r="G38" t="s">
         <v>50</v>
+      </c>
+      <c r="H38" t="s">
+        <v>143</v>
+      </c>
+      <c r="I38">
+        <v>3.1</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -1616,7 +1618,7 @@
         <v>50</v>
       </c>
       <c r="H40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -1633,7 +1635,7 @@
         <v>50</v>
       </c>
       <c r="H41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -1650,7 +1652,7 @@
         <v>50</v>
       </c>
       <c r="H42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I42">
         <v>4.0999999999999996</v>
@@ -1753,7 +1755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2368,16 +2370,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -2400,13 +2402,13 @@
         <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -2426,7 +2428,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
         <v>136</v>
@@ -2435,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -2455,7 +2457,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
@@ -2464,7 +2466,7 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2484,7 +2486,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
         <v>79</v>
@@ -2493,7 +2495,7 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2513,7 +2515,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
         <v>69</v>
@@ -2522,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B75474-5962-4553-8D62-F2B47FE3A9D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03A9476-306F-47A8-9ACF-A668734EEA71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="148">
   <si>
     <t>Idle</t>
   </si>
@@ -466,6 +466,15 @@
   </si>
   <si>
     <t>UltimateCreateYuka, UltimateCreateYukaBig</t>
+  </si>
+  <si>
+    <t>Actor0030</t>
+  </si>
+  <si>
+    <t>Ultimate0030</t>
+  </si>
+  <si>
+    <t>UltimateCreateSandWarrior</t>
   </si>
 </sst>
 </file>
@@ -856,7 +865,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1656,6 +1665,26 @@
       </c>
       <c r="I42">
         <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43">
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>
@@ -1753,7 +1782,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2544,31 +2573,22 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>146</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-      <c r="G27" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>147</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -2582,7 +2602,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -2591,16 +2611,22 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>5</v>
       </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
@@ -2614,13 +2640,19 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -2629,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2640,28 +2672,22 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
         <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30">
-        <v>5</v>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" t="b">
-        <v>0</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2672,7 +2698,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -2681,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -2704,27 +2730,59 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
         <v>2</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" t="b">
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03A9476-306F-47A8-9ACF-A668734EEA71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55376923-D8DA-472E-9D03-433AD218E1C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="151">
   <si>
     <t>Idle</t>
   </si>
@@ -475,6 +475,15 @@
   </si>
   <si>
     <t>UltimateCreateSandWarrior</t>
+  </si>
+  <si>
+    <t>Actor2128</t>
+  </si>
+  <si>
+    <t>Ultimate2128</t>
+  </si>
+  <si>
+    <t>UltimateCreateMobileFemale</t>
   </si>
 </sst>
 </file>
@@ -865,9 +874,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1685,6 +1694,26 @@
       </c>
       <c r="I43">
         <v>3.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" t="s">
+        <v>149</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1782,11 +1811,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2602,31 +2629,22 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
-      <c r="G28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>150</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
@@ -2640,7 +2658,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -2649,16 +2667,22 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29">
         <v>5</v>
       </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s">
+        <v>44</v>
+      </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -2672,13 +2696,19 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -2687,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2698,28 +2728,22 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
         <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" t="b">
-        <v>0</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2730,7 +2754,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -2739,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -2762,27 +2786,59 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
       </c>
       <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
         <v>2</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" t="b">
-        <v>0</v>
-      </c>
-      <c r="M33" t="b">
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55376923-D8DA-472E-9D03-433AD218E1C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67696A02-E5F0-43AB-8064-DA7BDACFD2EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -876,7 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1599,7 +1599,7 @@
         <v>143</v>
       </c>
       <c r="I38">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -1713,7 +1713,7 @@
         <v>149</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>
@@ -1813,7 +1813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67696A02-E5F0-43AB-8064-DA7BDACFD2EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445C6246-3E13-4BC0-8463-BF9F68D2DA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="153">
   <si>
     <t>Idle</t>
   </si>
@@ -484,6 +484,12 @@
   </si>
   <si>
     <t>UltimateCreateMobileFemale</t>
+  </si>
+  <si>
+    <t>Ultimate0007</t>
+  </si>
+  <si>
+    <t>UltimateCreateEarthMage</t>
   </si>
 </sst>
 </file>
@@ -876,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1515,17 +1521,14 @@
       <c r="D34">
         <v>5</v>
       </c>
-      <c r="E34" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34">
-        <v>0.05</v>
-      </c>
       <c r="G34" t="s">
         <v>50</v>
       </c>
+      <c r="H34" t="s">
+        <v>151</v>
+      </c>
       <c r="I34">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1811,9 +1814,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2426,16 +2429,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -2455,16 +2458,16 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -2484,16 +2487,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -2513,16 +2516,16 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2542,16 +2545,16 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2571,16 +2574,16 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -2600,16 +2603,16 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -2629,16 +2632,16 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -2658,31 +2661,22 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29">
-        <v>5</v>
-      </c>
-      <c r="G29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>150</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -2696,7 +2690,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -2705,16 +2699,22 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30">
         <v>5</v>
       </c>
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" t="s">
+        <v>44</v>
+      </c>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -2728,13 +2728,19 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -2743,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2754,28 +2760,22 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
         <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" t="b">
-        <v>0</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <v>5</v>
@@ -2818,27 +2818,59 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
       </c>
       <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35">
         <v>2</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="b">
-        <v>0</v>
-      </c>
-      <c r="K34" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" t="b">
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445C6246-3E13-4BC0-8463-BF9F68D2DA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2FF3D7-ACE2-4970-9E4C-F15180FAFF04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="154">
   <si>
     <t>Idle</t>
   </si>
@@ -490,6 +490,9 @@
   </si>
   <si>
     <t>UltimateCreateEarthMage</t>
+  </si>
+  <si>
+    <t>Actor3114</t>
   </si>
 </sst>
 </file>
@@ -880,9 +883,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1717,6 +1720,26 @@
       </c>
       <c r="I44">
         <v>3.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45">
+        <v>0.05</v>
+      </c>
+      <c r="G45" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1816,7 +1839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2FF3D7-ACE2-4970-9E4C-F15180FAFF04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3B9458-6CE1-45E9-9373-86BDBF4ABE63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="156">
   <si>
     <t>Idle</t>
   </si>
@@ -493,6 +493,12 @@
   </si>
   <si>
     <t>Actor3114</t>
+  </si>
+  <si>
+    <t>Ultimate2235</t>
+  </si>
+  <si>
+    <t>UltimateCreateLinhi</t>
   </si>
 </sst>
 </file>
@@ -883,9 +889,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1740,6 +1746,26 @@
       </c>
       <c r="G45" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>50</v>
+      </c>
+      <c r="H46" t="s">
+        <v>154</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1837,9 +1863,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2713,31 +2741,22 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30">
-        <v>5</v>
-      </c>
-      <c r="G30" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>155</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -2751,7 +2770,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -2760,16 +2779,22 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31">
         <v>5</v>
       </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" t="s">
+        <v>44</v>
+      </c>
       <c r="I31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -2783,13 +2808,19 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -2798,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2809,28 +2840,22 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
         <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33">
-        <v>5</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" t="b">
-        <v>0</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -2841,7 +2866,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
@@ -2850,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34">
         <v>5</v>
@@ -2873,27 +2898,59 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
       </c>
       <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36">
         <v>2</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="b">
-        <v>0</v>
-      </c>
-      <c r="K35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" t="b">
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3B9458-6CE1-45E9-9373-86BDBF4ABE63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FB9AC7-A868-435F-B5CD-21831E267683}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,7 +498,7 @@
     <t>Ultimate2235</t>
   </si>
   <si>
-    <t>UltimateCreateLinhi</t>
+    <t>UltimateRemoveLinhi, UltimateCreateLinhi, UltimateDelayedCreateLinhi</t>
   </si>
 </sst>
 </file>
@@ -1765,7 +1765,7 @@
         <v>154</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FB9AC7-A868-435F-B5CD-21831E267683}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C32EB67-C00E-472E-97B1-0D21A535CCE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,7 +498,7 @@
     <t>Ultimate2235</t>
   </si>
   <si>
-    <t>UltimateRemoveLinhi, UltimateCreateLinhi, UltimateDelayedCreateLinhi</t>
+    <t>UltimateRemoveLinhi, UltimateCreateLinhi, UltimateCreateLinhiLast</t>
   </si>
 </sst>
 </file>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C32EB67-C00E-472E-97B1-0D21A535CCE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE9F9C0-960C-42D1-897B-6F590F89DEE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="159">
   <si>
     <t>Idle</t>
   </si>
@@ -499,6 +499,15 @@
   </si>
   <si>
     <t>UltimateRemoveLinhi, UltimateCreateLinhi, UltimateCreateLinhiLast</t>
+  </si>
+  <si>
+    <t>Actor1218</t>
+  </si>
+  <si>
+    <t>Ultimate1218</t>
+  </si>
+  <si>
+    <t>UltimateCreateMedea, UltimateCreateMedeaLast</t>
   </si>
 </sst>
 </file>
@@ -889,11 +898,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1766,6 +1773,23 @@
       </c>
       <c r="I46">
         <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1863,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2770,31 +2794,22 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="G31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>158</v>
       </c>
       <c r="I31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -2808,7 +2823,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -2817,16 +2832,22 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32">
         <v>5</v>
       </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" t="s">
+        <v>44</v>
+      </c>
       <c r="I32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -2840,13 +2861,19 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -2855,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -2866,28 +2893,22 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
         <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="b">
-        <v>0</v>
-      </c>
-      <c r="K34" t="b">
-        <v>0</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -2898,7 +2919,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
@@ -2907,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35">
         <v>5</v>
@@ -2930,27 +2951,59 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
       </c>
       <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37">
         <v>2</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="b">
-        <v>0</v>
-      </c>
-      <c r="K36" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" t="b">
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE9F9C0-960C-42D1-897B-6F590F89DEE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A546B2DC-85F6-4046-8FB2-67D9CDDB2A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -900,7 +900,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1772,7 +1774,7 @@
         <v>154</v>
       </c>
       <c r="I46">
-        <v>6</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -1889,7 +1891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A546B2DC-85F6-4046-8FB2-67D9CDDB2A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6493EA-A148-4108-9D11-355B3C2A67CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="157">
   <si>
     <t>Idle</t>
   </si>
@@ -307,12 +307,6 @@
   </si>
   <si>
     <t>HitFlagSyria</t>
-  </si>
-  <si>
-    <t>Passive3212</t>
-  </si>
-  <si>
-    <t>HealSpOnDamageMeryl</t>
   </si>
   <si>
     <t>Passive2120</t>
@@ -900,9 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -942,7 +934,7 @@
         <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1246,7 +1238,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
@@ -1258,12 +1250,12 @@
         <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
@@ -1275,12 +1267,12 @@
         <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -1292,12 +1284,12 @@
         <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
@@ -1317,7 +1309,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
@@ -1337,7 +1329,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
@@ -1349,12 +1341,12 @@
         <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
@@ -1366,12 +1358,12 @@
         <v>50</v>
       </c>
       <c r="H25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
@@ -1391,7 +1383,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
@@ -1411,7 +1403,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
@@ -1431,7 +1423,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
@@ -1451,7 +1443,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
@@ -1463,7 +1455,7 @@
         <v>50</v>
       </c>
       <c r="H30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1488,7 +1480,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
@@ -1508,7 +1500,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B33" t="s">
         <v>53</v>
@@ -1531,7 +1523,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s">
         <v>53</v>
@@ -1543,7 +1535,7 @@
         <v>50</v>
       </c>
       <c r="H34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I34">
         <v>5.3</v>
@@ -1551,7 +1543,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
         <v>53</v>
@@ -1571,7 +1563,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
@@ -1583,12 +1575,12 @@
         <v>50</v>
       </c>
       <c r="H36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
@@ -1600,12 +1592,12 @@
         <v>50</v>
       </c>
       <c r="H37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -1617,7 +1609,7 @@
         <v>50</v>
       </c>
       <c r="H38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I38">
         <v>2.8</v>
@@ -1625,7 +1617,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
         <v>53</v>
@@ -1657,7 +1649,7 @@
         <v>50</v>
       </c>
       <c r="H40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -1674,7 +1666,7 @@
         <v>50</v>
       </c>
       <c r="H41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -1691,7 +1683,7 @@
         <v>50</v>
       </c>
       <c r="H42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I42">
         <v>4.0999999999999996</v>
@@ -1699,7 +1691,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B43" t="s">
         <v>53</v>
@@ -1711,7 +1703,7 @@
         <v>50</v>
       </c>
       <c r="H43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I43">
         <v>3.4</v>
@@ -1719,7 +1711,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B44" t="s">
         <v>53</v>
@@ -1731,7 +1723,7 @@
         <v>50</v>
       </c>
       <c r="H44" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I44">
         <v>3.2</v>
@@ -1739,7 +1731,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
@@ -1771,7 +1763,7 @@
         <v>50</v>
       </c>
       <c r="H46" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I46">
         <v>4.9000000000000004</v>
@@ -1779,7 +1771,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s">
         <v>53</v>
@@ -1791,7 +1783,7 @@
         <v>50</v>
       </c>
       <c r="H47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1889,11 +1881,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2042,16 +2032,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -2071,16 +2061,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -2100,16 +2090,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -2245,16 +2235,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -2274,16 +2264,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -2303,16 +2293,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -2332,16 +2322,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
         <v>104</v>
-      </c>
-      <c r="B15" t="s">
-        <v>103</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -2361,16 +2351,16 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
         <v>107</v>
-      </c>
-      <c r="B16" t="s">
-        <v>106</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -2390,16 +2380,16 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -2419,16 +2409,16 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
         <v>114</v>
-      </c>
-      <c r="B18" t="s">
-        <v>113</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -2448,16 +2438,16 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -2477,16 +2467,16 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -2506,16 +2496,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -2538,13 +2528,13 @@
         <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -2564,7 +2554,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
         <v>134</v>
@@ -2573,7 +2563,7 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -2593,16 +2583,16 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2625,7 +2615,7 @@
         <v>137</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -2654,7 +2644,7 @@
         <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -2680,16 +2670,16 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -2709,16 +2699,16 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" t="s">
         <v>146</v>
-      </c>
-      <c r="B28" t="s">
-        <v>145</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -2738,16 +2728,16 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -2767,16 +2757,16 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" t="s">
         <v>154</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -2796,22 +2786,31 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="F31" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" t="s">
+        <v>44</v>
       </c>
       <c r="I31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -2825,7 +2824,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -2834,22 +2833,16 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <v>5</v>
       </c>
-      <c r="G32" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
       <c r="I32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -2863,28 +2856,22 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
       </c>
       <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
         <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>5</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" t="b">
-        <v>0</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -2895,13 +2882,19 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -2910,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -2921,7 +2914,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
@@ -2930,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35">
         <v>5</v>
@@ -2953,19 +2946,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
       </c>
       <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -2980,32 +2967,6 @@
         <v>0</v>
       </c>
       <c r="M36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="b">
-        <v>0</v>
-      </c>
-      <c r="K37" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6493EA-A148-4108-9D11-355B3C2A67CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60937A06-B4DF-4CD4-A87B-37FE46BD2A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,9 +306,6 @@
     <t>Passive0233</t>
   </si>
   <si>
-    <t>HitFlagSyria</t>
-  </si>
-  <si>
     <t>Passive2120</t>
   </si>
   <si>
@@ -502,6 +499,9 @@
   </si>
   <si>
     <t>UltimateCreateMedea, UltimateCreateMedeaLast</t>
+  </si>
+  <si>
+    <t>CallChangeOnEncounterSyria, CallChangeOnHitAreaSyria</t>
   </si>
 </sst>
 </file>
@@ -934,7 +934,7 @@
         <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1238,58 +1238,58 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
         <v>101</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="G19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
         <v>104</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="G20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
         <v>107</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="G21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
@@ -1329,41 +1329,41 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" t="s">
         <v>111</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s">
         <v>114</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="G25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
@@ -1455,7 +1455,7 @@
         <v>50</v>
       </c>
       <c r="H30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1480,7 +1480,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
         <v>53</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
         <v>53</v>
@@ -1535,7 +1535,7 @@
         <v>50</v>
       </c>
       <c r="H34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I34">
         <v>5.3</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
         <v>53</v>
@@ -1563,24 +1563,24 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" t="s">
         <v>128</v>
-      </c>
-      <c r="B36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-      <c r="G36" t="s">
-        <v>50</v>
-      </c>
-      <c r="H36" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
@@ -1592,12 +1592,12 @@
         <v>50</v>
       </c>
       <c r="H37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -1609,7 +1609,7 @@
         <v>50</v>
       </c>
       <c r="H38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I38">
         <v>2.8</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
         <v>53</v>
@@ -1649,7 +1649,7 @@
         <v>50</v>
       </c>
       <c r="H40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -1666,7 +1666,7 @@
         <v>50</v>
       </c>
       <c r="H41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -1683,7 +1683,7 @@
         <v>50</v>
       </c>
       <c r="H42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I42">
         <v>4.0999999999999996</v>
@@ -1691,19 +1691,19 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" t="s">
         <v>143</v>
-      </c>
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="G43" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" t="s">
-        <v>144</v>
       </c>
       <c r="I43">
         <v>3.4</v>
@@ -1711,19 +1711,19 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" t="s">
         <v>146</v>
-      </c>
-      <c r="B44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44">
-        <v>5</v>
-      </c>
-      <c r="G44" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" t="s">
-        <v>147</v>
       </c>
       <c r="I44">
         <v>3.2</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
@@ -1763,7 +1763,7 @@
         <v>50</v>
       </c>
       <c r="H46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I46">
         <v>4.9000000000000004</v>
@@ -1771,19 +1771,19 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" t="s">
         <v>154</v>
-      </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47">
-        <v>5</v>
-      </c>
-      <c r="G47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1883,7 +1883,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2032,16 +2034,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
         <v>95</v>
-      </c>
-      <c r="B5" t="s">
-        <v>96</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -2061,16 +2063,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
         <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -2090,16 +2092,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
         <v>92</v>
-      </c>
-      <c r="B7" t="s">
-        <v>93</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -2273,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -2293,16 +2295,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -2322,16 +2324,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -2351,16 +2353,16 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -2380,16 +2382,16 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -2409,16 +2411,16 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -2438,16 +2440,16 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
         <v>120</v>
-      </c>
-      <c r="B19" t="s">
-        <v>121</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -2467,16 +2469,16 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -2496,16 +2498,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -2525,16 +2527,16 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" t="s">
         <v>131</v>
-      </c>
-      <c r="B22" t="s">
-        <v>132</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -2554,16 +2556,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -2583,7 +2585,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
@@ -2592,7 +2594,7 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2612,7 +2614,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
         <v>79</v>
@@ -2621,7 +2623,7 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2641,7 +2643,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B26" t="s">
         <v>69</v>
@@ -2650,7 +2652,7 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -2670,16 +2672,16 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -2699,16 +2701,16 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -2728,7 +2730,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
         <v>74</v>
@@ -2737,7 +2739,7 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -2757,16 +2759,16 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
